--- a/PTBR/Lang/PTBR/Game/Backer.xlsx
+++ b/PTBR/Lang/PTBR/Game/Backer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F996CF17-F44E-4972-BF4E-C96BD0FEF2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C31E7D-1375-4904-A287-8404202EC819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5425,7 +5425,7 @@
   <dimension ref="A1:H649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/PTBR/Lang/PTBR/Game/Backer.xlsx
+++ b/PTBR/Lang/PTBR/Game/Backer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98652C95-4FDE-41DD-94C7-EDA37229E723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C907D-92C8-46C1-B5D2-D63A164B902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2130" windowWidth="15480" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backer" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1944">
   <si>
     <t>id</t>
   </si>
@@ -5843,6 +5843,18 @@
   </si>
   <si>
     <t xml:space="preserve">Kachu kachu kama xiu (Tradução: Tenha uma boa aventura!)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biscoito </t>
+  </si>
+  <si>
+    <t>A Gata Silenciosa 「Cola」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cujo nome é Cain de Ticano  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derrotado pela Gacha「Aoxola」  </t>
   </si>
 </sst>
 </file>
@@ -6233,9 +6245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12141,7 +12153,7 @@
         <v>904</v>
       </c>
       <c r="C318" t="s">
-        <v>997</v>
+        <v>1941</v>
       </c>
       <c r="D318" t="s">
         <v>997</v>
@@ -12197,7 +12209,7 @@
         <v>904</v>
       </c>
       <c r="C322" t="s">
-        <v>1104</v>
+        <v>1940</v>
       </c>
       <c r="D322" t="s">
         <v>1104</v>
@@ -12323,7 +12335,7 @@
         <v>904</v>
       </c>
       <c r="C331" t="s">
-        <v>1069</v>
+        <v>1942</v>
       </c>
       <c r="D331" t="s">
         <v>1069</v>
@@ -12393,7 +12405,7 @@
         <v>904</v>
       </c>
       <c r="C336" t="s">
-        <v>1098</v>
+        <v>1943</v>
       </c>
       <c r="D336" t="s">
         <v>1098</v>

--- a/PTBR/Lang/PTBR/Game/Backer.xlsx
+++ b/PTBR/Lang/PTBR/Game/Backer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C907D-92C8-46C1-B5D2-D63A164B902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B327DBDE-3538-44E8-AAC7-6719957B4919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2130" windowWidth="15480" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backer" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1806">
   <si>
     <t>id</t>
   </si>
@@ -3043,639 +3043,6 @@
     <t>「Hatamugi」</t>
   </si>
   <si>
-    <t xml:space="preserve">「Pudim」Ave Monstruosa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「Mertz」Aprendiz de Feiticeiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「Aventureiro Comum U」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「Mulher Graciosa」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「Apostador Sem Nome」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「Guardião de Sagitário」Muse  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「Que a Luz Estelar Nos Guie!」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「Tio Zumbi Vivo (36 anos)」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitária de 18 anos「Shiitake」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Um Menestrel Errante  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">trampo brabo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adams "Mesherada" Trinh  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adria  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aekx  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcadeias  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bêbado de álcool  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angelica  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">contanto que você dê esse nome. Se puder ser uma arma especial  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asagiri Otomo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermuda Muda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carind Nivans  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crayll  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lua profunda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ebony  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eloria esteve aqui!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em Laeser  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horizonte Homem-Peixe  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonne Walkure  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gazelle  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halycoma00  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happeach  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kairi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiridaema  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leilana Auslese  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lmm  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucy  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mameta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mango Putit  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mestre†Z†  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">meyan  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mono  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MURAKUMO  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oak  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aveia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">orn  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descanse aqui o quanto quiser  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHA5mm  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RJ181918  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rook  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roroky Lalaoky  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruka  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SabaTea  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sábio da Lâmina ao Luar "Hachimitsu"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senko san  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silica Aruass  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topo do Céu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snokoi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caracol Estelar "reblank"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stella Irae  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TweetBot「Elica」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uokun  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cujo nome é Cain de Ticano  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoshi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maga Ofegante「Tama」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azarada Ofegante「Katagiri」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aki  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atsuan  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquela que ansiava por você「???」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aya  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesouro Supremo dos Mortos-Vivos「Estelle」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanático da Grandiosa Raça de Ys「1e0」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itsuki  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">É Meu Curry「Tomohiro」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gata Sempre Dorminhoca「Hana」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviço de Aluguel de Cães-Foca「Remidori」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caçador Irregular「X」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tio Utoff「Yesu」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventureiro Desastrado「Parado」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onda Eterna「Mizuka」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esquecido por Aes「Seiya」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arqueira de Eudana「Ilrana」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destino da Doença Etérea「Sano」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eggi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethel  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande Anjo de Calcinha「Momorou」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onii-chan Para Sempre「Elrina」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperamental do Clima「Aya」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia Perfeito para Caminhar「Sanpodoki」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ama Vegetais「Ninjin-nosuke」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katasuke  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derrotado pela Gacha「aoxola」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lanterna que Já Foi Humana「Took」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desaparecimento Misterioso「Danomin」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fada Fofa Demais「Seirea」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kikiei  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jogo de Azar da Esperança「Reji」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cookie  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caçador Gourmet「Burnfu」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caracol Gamerzinha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floresta de Keyaki「Tomo」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servo de Corklore「Martim」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquele que se Derramou「Memoria」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se Esfregando Manhosamente「Asu」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pescador Errante「Lua」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanabee  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shizuku  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filhote Tímido「Fuku」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanático de Jua「Onasu」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slime Caracol  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ainda Assim em Fuga「Minoto」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apenas a Irmãzinha「toroge」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orelhuda Caída「Mari」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amante de Cabelos Presos「Hapi」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetsuoni  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ten  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu Sem Esperança「Dattan」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagartazargão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cachorrinho Muito Fofo「Choco」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toroppi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sr. Natori  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udon com Pepino-do-Mar Cozido「Ricky」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meme da Net「Que droga, não tem mais salvação, Coração」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vindo da Escola de Batalha「Zue」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parasita  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noite de Halloween「Lumina」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gatinha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cínico「Weji」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irmã Ardente「Shizuma」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ama Bola de Fogo「Radian」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantasma Vermelho「Anastasia」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fezachama  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soberano da Futaba「Toshinka」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mais ou Menos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beleza Sombria Fofa「Nemo」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bardo Medroso「Noki」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bardo Caçador de Peridoto「Tsuberosa」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quentinha e Saborosa「Poteito」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polly  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todo Acabado「T2023」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mash  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srta. Yusuke  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midnuzzle  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feito na Morte「Hieda」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caçador de Toupeiras「Chaka」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macio Macio「Omochi」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motsumuri  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afinal, o Irmãozinho「kokoax」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boa Criança「Puyu」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vila de Yoshino  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yotsuba-chan  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rantauros「acht-aale」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranran  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amiga de Lunata「Toro」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cão Tolo Maravilhoso「Carollen」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem Um Tostão「Kazuhisa」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquele com Cone de Trânsito na Cabeça「Takeda」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabeça Sinistra「Careca」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorriso Desagradável「Kazari」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cão Imortal「Charpan」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lanterna Única no Mundo「TKTK」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Mundo É Só Nosso  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperador da Espada Eterna「Metamas」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petit à Procura de Água de Poço「Koukan」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe Saltitante que Quer Ser Gente「nsBeee」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escreve-se Vida, Lê-se Irmãzinha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoje Também Quero Carinho「Reido」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curandeiro de Mãos Demoníacas e Alma Búdica「Yukkie」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curtindo as Férias「Tom」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herói Lendário「ああああ」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nada Sabe「Limina」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queria Ser Alguém「Manafo」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ridge da Alma Samurai「Yasuka」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferido「Inaba」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rato Trabalhador「Nametake」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amo o Nii-chan「Irmã」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Irmão ou a Irmã Primeiro?「Celery」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sobe e Sobe pelo Irmão「Chocolade」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esqueceu o Irmão「Rita」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">À Procura do Irmão「Chihaya」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junto à Luz「Naotarou」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fim à Procura da Luz「Ren」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homem Frio e Calculista「Day」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Momento Fugaz「Schwert」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cavaleira Corajosa「Feri」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filantropia「Mamogoro」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corpo Perigoso「Rabo Duplo Barbudo」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canção da Colheita「Alfred」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrela Antiga「Nirsa」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grite por Sorte「Katagiri」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmão Invocado「Doma」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carne Podre Fofa Demais「Belta」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caçador de Potenciais「Tomo」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem Nome, Mas Gente Boa「Nice Guy」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Princesa Dragão Amaldiçoada「Eri」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploradora Infeliz「Kurohako」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gato Filosófico「Poni」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dançando com Desdém「Labyrinth」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consegue Falar Sem Travar?「Onyonyoimyoko」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visitante da Biblioteca「Den Gen Nano」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coelho Branco Existente「Mevie」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fim do Equilíbrio「Ragna」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incrível Resistência ao Sal「Omikuji」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morto Arruinado「Cursothansos」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boneca Quebrada「Fragile」  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canalha「Kayano」  </t>
-  </si>
-  <si>
     <t>Guardião da Noite「ミゼル」</t>
   </si>
   <si>
@@ -4441,297 +3808,6 @@
     <t>Gato da Estalagem Neko Preto「Chiroako」</t>
   </si>
   <si>
-    <t xml:space="preserve">3C Jian Da Lao Ba Risada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sempre olhe para dias mais brilhantes!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você é o próximo Ceifador?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queime na eterna ambição abissal!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carregou o peso de uma Profecia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO MUNDO PRECISA DE ALGUÉM.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feliz aniversário para você. Faça um pedido!!!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ele fez muito pouco, mas escolheu conselheiros sábios para administrar sua nação, antes de abdicar do trono para um governante mais digno  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parece que não consigo escapar deste lugar, mas pelo menos não estou sozinho. Tenho um amigo comigo.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Só quero me deitar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adoro mexer nas coisas à noite!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achei que seria uma luta de facas...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu era Zingot, o Furtivo, até que fui perfurado, agora sou apenas Zingot, o Cadáver.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vou te encontrar, meu amor, nem que seja a última coisa que eu faça  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não vou cair sem lutar!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sempre estarei aqui por você.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Com certeza me tornarei um herói lendário!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vou encontrar a alabarda amaldiçoada que para o tempo, ou morrerei tentando! Depois disso, vou para casa comer um delicioso parfait de maçã...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estou tão, tão, TÃO animado para o concerto de hoje! Vai ser minha primeira apresentação na frente de todos! Espero que todos gostem.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deixe a chama queimar e lembre-se de mim. Do pó às cinzas, siga em frente e divirta-se.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lily... Pael... Me desculpem...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mai, se você estiver lendo isso, não se esqueça de fazer sua lição de casa!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que possamos testemunhar juntos o momento da vitória final.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derreta tudo, TUDO!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meu corpo quebrado, olhos pesados, minha hora chegou... Retorno ao fluxo da alma, para que ela possa me guiar de volta à terra prometida.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cavaleira? Mal a conheço!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Droga! Que jeito estranho de falar... Minha bolsa acabou de me matar?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As palavras antigas serão ditas novamente... Vida antes da morte, força antes da fraqueza e jornada antes do destino.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As escadas neste lugar são mortais...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não me disseram que isso aconteceria!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Será que meu desejo se tornará realidade?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabalhadores de Vernis, uni-vos!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os Yeeks não são o único perigo aqui embaixo...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(No chão jaz um corpo completamente carbonizado. Ao lado, suas ferramentas caídas — parece que houve um acidente enquanto as organizava.)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Aparentemente, a causa da morte foi fome.)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rat-a-tat-tat e todos os ratos se dispersaram  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Um papel amassado com letras profundas.) Mesmo que não encontre papel, não use armas para se limpar, ok?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O 'arqueiro com escudo em ambas as mãos' teve seu escudo amaldiçoado e não pôde removê-lo, morrendo de fome assim. Enfiar a cabeça no prato para comer não é comportamento de um cavalheiro!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">………！  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">……A última mordida  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">…Ei, onde você está tocando?! Quando eu recuperar minha magia, você vai se arrepender... Com certeza vai se arrepender...!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">…A eternidade existe  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'a! I'a! Yog-Sothoth!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a narrativa está aqui agora  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">q!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHIITAKE é o irmão mais velho, viu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma era, uma chama, deixando suas pegadas aqui  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma ovelha, duas ovelhas...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Só um instante... um lampejo de luz no meio do caos...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na próxima eu farei melhor...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na próxima, você vai morrer de forma mais digna, espero  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não, não é isso!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não quis machucar as árvores para gravar meu nome, nem morrer como aventureiro. Meu último desejo era apenas acender essa luz.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não é mesmo, Sr. ______? Você precisa ver isso.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não sou um tanuki, ok?!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não preciso de orações. Minha alma irá reencarnar e cantar a próxima vida. Se restarem pertences, pode ficar com eles.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenho que esconder esse para o momento perfeito...!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por que aconteceu essa anomalia?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por que ninguém veio me salvar...?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilumine o caminho dos viajantes  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">— Acrescente um toque de loucura ao cotidiano  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que o ser humano mais precisa, no fim, não é conhecimento... é comida!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoje o clima está ótimo, não acha?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoje é meu dia de sorte!!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoje é um bom dia! Um brinde!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O saquê de hoje também está excelente!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A partir de hoje, vou recomeçar meu diário  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daqui de mim para você, a luz que nunca se apaga  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que será que vai sair, hein?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você também veio aqui com um propósito, né? Bom, força pra nós.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você aproveitou tudo?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sua vida brilha intensamente. Um dia, o fim igualitário virá. Fique ansioso por isso.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adiante, será preciso luz para continuar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não importa quantas vezes se suicide, no fim só sobrarão ossos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortei as pernas extras para vender e arrecadar fundos...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Está na hora de acordar!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O caminho à frente é cheio de sofrimento. Por isso precisamos da música.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesmo sem dormir, o amanhã chegará  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ainda assim, siga seu próprio caminho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesmo que eu caia, outros virão para tecer esta melodia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fui enganado de novo, né?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viva as marias-chiquinhas!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enquanto não desistir... ainda dá tempo de realizar seu sonho, berinjela!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se eu comer isso, até a deusa da sorte vai... hmpf!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se isso der certo...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enquanto essa chama brilhar na terra de Irva, meus olhos jamais serão tomados pela escuridão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A adorável dona da loja de miudezas  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A você, que encontrei sob a luz da lua no caminho das cerejeiras, ofereço a aurora entre pétalas dançantes  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ah, encontrou mesmo... então venha, cave, vamos lá, fortão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crac crac... croc... bip bip bip! Erro— Erro—!!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">É... até que foi uma boa vida de andarilho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahhh aaaaah! Então é isso que é a morte?!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesmo que seja só mais uma vida salva...!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hã?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahhh... aquele personagem com chance aumentada no gacha... fui até o teto e nada...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ah, liberdade... leve-a por mim.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A lua redonda e o gatinho redondo~♪  </t>
-  </si>
-  <si>
     <t>Por aqui!</t>
   </si>
   <si>
@@ -5842,19 +4918,529 @@
     <t>Youkai「Chaleira Borbulhante」</t>
   </si>
   <si>
-    <t xml:space="preserve">Kachu kachu kama xiu (Tradução: Tenha uma boa aventura!)  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Biscoito </t>
   </si>
   <si>
     <t>A Gata Silenciosa 「Cola」</t>
   </si>
   <si>
-    <t xml:space="preserve">Cujo nome é Cain de Ticano  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derrotado pela Gacha「Aoxola」  </t>
+    <t>— Acrescente um toque de loucura ao cotidiano</t>
+  </si>
+  <si>
+    <t>(Aparentemente, a causa da morte foi fome.)</t>
+  </si>
+  <si>
+    <t>(No chão jaz um corpo completamente carbonizado. Ao lado, suas ferramentas caídas — parece que houve um acidente enquanto as organizava.)</t>
+  </si>
+  <si>
+    <t>(Um papel amassado com letras profundas.) Mesmo que não encontre papel, não use armas para se limpar, ok?</t>
+  </si>
+  <si>
+    <t>Arqueira de Eudana「Ilrana」</t>
+  </si>
+  <si>
+    <t>Ainda Assim em Fuga「Minoto」</t>
+  </si>
+  <si>
+    <t>Curtindo as Férias「Tom」</t>
+  </si>
+  <si>
+    <t>Aquela que ansiava por você「???」</t>
+  </si>
+  <si>
+    <t>Aquele com Cone de Trânsito na Cabeça「Takeda」</t>
+  </si>
+  <si>
+    <t>「Mertz」Aprendiz de Feiticeiro</t>
+  </si>
+  <si>
+    <t>Caçador de Potenciais「Tomo」</t>
+  </si>
+  <si>
+    <t>Afinal, o Irmãozinho「kokoax」</t>
+  </si>
+  <si>
+    <t>Boneca Quebrada「Fragile」</t>
+  </si>
+  <si>
+    <t>「Guardião de Sagitário」Muse</t>
+  </si>
+  <si>
+    <t>Bardo Caçador de Peridoto「Tsuberosa」</t>
+  </si>
+  <si>
+    <t>「Apostador Sem Nome」</t>
+  </si>
+  <si>
+    <t>Canção da Colheita「Alfred」</t>
+  </si>
+  <si>
+    <t>Atsuan</t>
+  </si>
+  <si>
+    <t>bêbado de álcool</t>
+  </si>
+  <si>
+    <t>「Tio Zumbi Vivo (36 anos)」</t>
+  </si>
+  <si>
+    <t>Caçador Gourmet「Burnfu」</t>
+  </si>
+  <si>
+    <t>………！</t>
+  </si>
+  <si>
+    <t>……A última mordida</t>
+  </si>
+  <si>
+    <t>…A eternidade existe</t>
+  </si>
+  <si>
+    <t>…Ei, onde você está tocando?! Quando eu recuperar minha magia, você vai se arrepender... Com certeza vai se arrepender...!</t>
+  </si>
+  <si>
+    <t>3C Jian Da Lao Ba Risada</t>
+  </si>
+  <si>
+    <t>A adorável dona da loja de miudezas</t>
+  </si>
+  <si>
+    <t>A lua redonda e o gatinho redondo~♪</t>
+  </si>
+  <si>
+    <t>a narrativa está aqui agora</t>
+  </si>
+  <si>
+    <t>A partir de hoje, vou recomeçar meu diário</t>
+  </si>
+  <si>
+    <t>A você, que encontrei sob a luz da lua no caminho das cerejeiras, ofereço a aurora entre pétalas dançantes</t>
+  </si>
+  <si>
+    <t>Aekx</t>
+  </si>
+  <si>
+    <t>Achei que seria uma luta de facas...</t>
+  </si>
+  <si>
+    <t>Adiante, será preciso luz para continuar</t>
+  </si>
+  <si>
+    <t>Adoro mexer nas coisas à noite!</t>
+  </si>
+  <si>
+    <t>Ah, encontrou mesmo... então venha, cave, vamos lá, fortão</t>
+  </si>
+  <si>
+    <t>Ah, liberdade... leve-a por mim.</t>
+  </si>
+  <si>
+    <t>Herói Lendário「ああああ」</t>
+  </si>
+  <si>
+    <t>Ahhh aaaaah! Então é isso que é a morte?!</t>
+  </si>
+  <si>
+    <t>Ahhh... aquele personagem com chance aumentada no gacha... fui até o teto e nada...</t>
+  </si>
+  <si>
+    <t>Ainda assim, siga seu próprio caminho</t>
+  </si>
+  <si>
+    <t>As escadas neste lugar são mortais...</t>
+  </si>
+  <si>
+    <t>As palavras antigas serão ditas novamente... Vida antes da morte, força antes da fraqueza e jornada antes do destino.</t>
+  </si>
+  <si>
+    <t>Carregou o peso de uma Profecia</t>
+  </si>
+  <si>
+    <t>Cavaleira? Mal a conheço!</t>
+  </si>
+  <si>
+    <t>Com certeza me tornarei um herói lendário!</t>
+  </si>
+  <si>
+    <t>Cortei as pernas extras para vender e arrecadar fundos...</t>
+  </si>
+  <si>
+    <t>Crac crac... croc... bip bip bip! Erro— Erro—!!</t>
+  </si>
+  <si>
+    <t>Daqui de mim para você, a luz que nunca se apaga</t>
+  </si>
+  <si>
+    <t>Deixe a chama queimar e lembre-se de mim. Do pó às cinzas, siga em frente e divirta-se.</t>
+  </si>
+  <si>
+    <t>Derreta tudo, TUDO!</t>
+  </si>
+  <si>
+    <t>Droga! Que jeito estranho de falar... Minha bolsa acabou de me matar?</t>
+  </si>
+  <si>
+    <t>É... até que foi uma boa vida de andarilho</t>
+  </si>
+  <si>
+    <t>Ele fez muito pouco, mas escolheu conselheiros sábios para administrar sua nação, antes de abdicar do trono para um governante mais digno</t>
+  </si>
+  <si>
+    <t>Enquanto essa chama brilhar na terra de Irva, meus olhos jamais serão tomados pela escuridão</t>
+  </si>
+  <si>
+    <t>Enquanto não desistir... ainda dá tempo de realizar seu sonho, berinjela!</t>
+  </si>
+  <si>
+    <t>Está na hora de acordar!</t>
+  </si>
+  <si>
+    <t>Estou tão, tão, TÃO animado para o concerto de hoje! Vai ser minha primeira apresentação na frente de todos! Espero que todos gostem.</t>
+  </si>
+  <si>
+    <t>Eu era Zingot, o Furtivo, até que fui perfurado, agora sou apenas Zingot, o Cadáver.</t>
+  </si>
+  <si>
+    <t>Feliz aniversário para você. Faça um pedido!!!</t>
+  </si>
+  <si>
+    <t>Caçador de Toupeiras「Chaka」</t>
+  </si>
+  <si>
+    <t>Fui enganado de novo, né?</t>
+  </si>
+  <si>
+    <t>「Aventureiro Comum U」</t>
+  </si>
+  <si>
+    <t>Hã?</t>
+  </si>
+  <si>
+    <t>Hoje é meu dia de sorte!!</t>
+  </si>
+  <si>
+    <t>Hoje é um bom dia! Um brinde!</t>
+  </si>
+  <si>
+    <t>Hoje o clima está ótimo, não acha?</t>
+  </si>
+  <si>
+    <t>I'a! I'a! Yog-Sothoth!</t>
+  </si>
+  <si>
+    <t>Ilumine o caminho dos viajantes</t>
+  </si>
+  <si>
+    <t>Kachu kachu kama xiu (Tradução: Tenha uma boa aventura!)</t>
+  </si>
+  <si>
+    <t>Lily... Pael... Me desculpem...</t>
+  </si>
+  <si>
+    <t>Mai, se você estiver lendo isso, não se esqueça de fazer sua lição de casa!</t>
+  </si>
+  <si>
+    <t>Mesmo que eu caia, outros virão para tecer esta melodia</t>
+  </si>
+  <si>
+    <t>Curandeiro de Mãos Demoníacas e Alma Búdica「Yukkie」</t>
+  </si>
+  <si>
+    <t>Mesmo que seja só mais uma vida salva...!</t>
+  </si>
+  <si>
+    <t>Mesmo sem dormir, o amanhã chegará</t>
+  </si>
+  <si>
+    <t>Meu corpo quebrado, olhos pesados, minha hora chegou... Retorno ao fluxo da alma, para que ela possa me guiar de volta à terra prometida.</t>
+  </si>
+  <si>
+    <t>Na próxima eu farei melhor...</t>
+  </si>
+  <si>
+    <t>Na próxima, você vai morrer de forma mais digna, espero</t>
+  </si>
+  <si>
+    <t>Não é mesmo, Sr. ______? Você precisa ver isso.</t>
+  </si>
+  <si>
+    <t>Não importa quantas vezes se suicide, no fim só sobrarão ossos</t>
+  </si>
+  <si>
+    <t>Não me disseram que isso aconteceria!</t>
+  </si>
+  <si>
+    <t>Não preciso de orações. Minha alma irá reencarnar e cantar a próxima vida. Se restarem pertences, pode ficar com eles.</t>
+  </si>
+  <si>
+    <t>Não quis machucar as árvores para gravar meu nome, nem morrer como aventureiro. Meu último desejo era apenas acender essa luz.</t>
+  </si>
+  <si>
+    <t>Não sou um tanuki, ok?!</t>
+  </si>
+  <si>
+    <t>Não vou cair sem lutar!</t>
+  </si>
+  <si>
+    <t>Não, não é isso!</t>
+  </si>
+  <si>
+    <t>O 'arqueiro com escudo em ambas as mãos' teve seu escudo amaldiçoado e não pôde removê-lo, morrendo de fome assim. Enfiar a cabeça no prato para comer não é comportamento de um cavalheiro!</t>
+  </si>
+  <si>
+    <t>O caminho à frente é cheio de sofrimento. Por isso precisamos da música.</t>
+  </si>
+  <si>
+    <t>O que o ser humano mais precisa, no fim, não é conhecimento... é comida!</t>
+  </si>
+  <si>
+    <t>O que será que vai sair, hein?</t>
+  </si>
+  <si>
+    <t>O saquê de hoje também está excelente!</t>
+  </si>
+  <si>
+    <t>Os Yeeks não são o único perigo aqui embaixo...</t>
+  </si>
+  <si>
+    <t>Parece que não consigo escapar deste lugar, mas pelo menos não estou sozinho. Tenho um amigo comigo.</t>
+  </si>
+  <si>
+    <t>Caçador Irregular「X」</t>
+  </si>
+  <si>
+    <t>Por que aconteceu essa anomalia?</t>
+  </si>
+  <si>
+    <t>Aventureiro Desastrado「Parado」</t>
+  </si>
+  <si>
+    <t>Por que ninguém veio me salvar...?</t>
+  </si>
+  <si>
+    <t>q!</t>
+  </si>
+  <si>
+    <t>Que possamos testemunhar juntos o momento da vitória final.</t>
+  </si>
+  <si>
+    <t>Queime na eterna ambição abissal!</t>
+  </si>
+  <si>
+    <t>Rat-a-tat-tat e todos os ratos se dispersaram</t>
+  </si>
+  <si>
+    <t>Azarada Ofegante「Katagiri」</t>
+  </si>
+  <si>
+    <t>Se eu comer isso, até a deusa da sorte vai... hmpf!</t>
+  </si>
+  <si>
+    <t>Se isso der certo...</t>
+  </si>
+  <si>
+    <t>Sempre estarei aqui por você.</t>
+  </si>
+  <si>
+    <t>Sempre olhe para dias mais brilhantes!</t>
+  </si>
+  <si>
+    <t>Será que meu desejo se tornará realidade?</t>
+  </si>
+  <si>
+    <t>SHIITAKE é o irmão mais velho, viu</t>
+  </si>
+  <si>
+    <t>Só quero me deitar</t>
+  </si>
+  <si>
+    <t>Só um instante... um lampejo de luz no meio do caos...</t>
+  </si>
+  <si>
+    <t>Sua vida brilha intensamente. Um dia, o fim igualitário virá. Fique ansioso por isso.</t>
+  </si>
+  <si>
+    <t>Tenho que esconder esse para o momento perfeito...!</t>
+  </si>
+  <si>
+    <t>Alcadeias</t>
+  </si>
+  <si>
+    <t>TODO MUNDO PRECISA DE ALGUÉM.</t>
+  </si>
+  <si>
+    <t>Trabalhadores de Vernis, uni-vos!</t>
+  </si>
+  <si>
+    <t>Uma era, uma chama, deixando suas pegadas aqui</t>
+  </si>
+  <si>
+    <t>Uma ovelha, duas ovelhas...</t>
+  </si>
+  <si>
+    <t>Amante de Cabelos Presos「Hapi」</t>
+  </si>
+  <si>
+    <t>Viva as marias-chiquinhas!</t>
+  </si>
+  <si>
+    <t>Você aproveitou tudo?</t>
+  </si>
+  <si>
+    <t>Você é o próximo Ceifador?</t>
+  </si>
+  <si>
+    <t>Você também veio aqui com um propósito, né? Bom, força pra nós.</t>
+  </si>
+  <si>
+    <t>Vou encontrar a alabarda amaldiçoada que para o tempo, ou morrerei tentando! Depois disso, vou para casa comer um delicioso parfait de maçã...</t>
+  </si>
+  <si>
+    <t>Vou te encontrar, meu amor, nem que seja a última coisa que eu faça</t>
+  </si>
+  <si>
+    <t>「Mulher Graciosa」</t>
+  </si>
+  <si>
+    <t>「Pudim」Ave Monstruosa</t>
+  </si>
+  <si>
+    <t>「Que a Luz Estelar Nos Guie!」</t>
+  </si>
+  <si>
+    <t>À Procura do Irmão「Chihaya」</t>
+  </si>
+  <si>
+    <t>Adams "Mesherada" Trinh</t>
+  </si>
+  <si>
+    <t>Adria</t>
+  </si>
+  <si>
+    <t>Aki</t>
+  </si>
+  <si>
+    <t>Ama Bola de Fogo「Radian」</t>
+  </si>
+  <si>
+    <t>Ama Vegetais「Ninjin-nosuke」</t>
+  </si>
+  <si>
+    <t>Amiga de Lunata「Toro」</t>
+  </si>
+  <si>
+    <t>Amo o Nii-chan「Irmã」</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>Apenas a Irmãzinha「toroge」</t>
+  </si>
+  <si>
+    <t>Aquele que se Derramou「Memoria」</t>
+  </si>
+  <si>
+    <t>Asagiri Otomo</t>
+  </si>
+  <si>
+    <t>aveia</t>
+  </si>
+  <si>
+    <t>Aya</t>
+  </si>
+  <si>
+    <t>Beleza Sombria Fofa「Nemo」</t>
+  </si>
+  <si>
+    <t>Bermuda Muda</t>
+  </si>
+  <si>
+    <t>Boa Criança「Puyu」</t>
+  </si>
+  <si>
+    <t>Cabeça Sinistra「Careca」</t>
+  </si>
+  <si>
+    <t>Cachorrinho Muito Fofo「Choco」</t>
+  </si>
+  <si>
+    <t>Canalha「Kayano」</t>
+  </si>
+  <si>
+    <t>Cão Imortal「Charpan」</t>
+  </si>
+  <si>
+    <t>Cão Tolo Maravilhoso「Carollen」</t>
+  </si>
+  <si>
+    <t>Caracol Estelar "reblank"</t>
+  </si>
+  <si>
+    <t>Caracol Gamerzinha</t>
+  </si>
+  <si>
+    <t>Carind Nivans</t>
+  </si>
+  <si>
+    <t>Carne Podre Fofa Demais「Belta」</t>
+  </si>
+  <si>
+    <t>Cavaleira Corajosa「Feri」</t>
+  </si>
+  <si>
+    <t>Cínico「Weji」</t>
+  </si>
+  <si>
+    <t>Coelho Branco Existente「Mevie」</t>
+  </si>
+  <si>
+    <t>Consegue Falar Sem Travar?「Onyonyoimyoko」</t>
+  </si>
+  <si>
+    <t>contanto que você dê esse nome. Se puder ser uma arma especial</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>Corpo Perigoso「Rabo Duplo Barbudo」</t>
+  </si>
+  <si>
+    <t>Crayll</t>
+  </si>
+  <si>
+    <t>Cujo nome é Cain de Ticano</t>
+  </si>
+  <si>
+    <t>cujo nome é Cain de Ticano</t>
+  </si>
+  <si>
+    <t>Dançando com Desdém「Labyrinth」</t>
+  </si>
+  <si>
+    <t>Derrotado pela Gacha「Aoxola」</t>
+  </si>
+  <si>
+    <t>Derrotado pela Gacha「aoxola」</t>
+  </si>
+  <si>
+    <t>Desaparecimento Misterioso「Danomin」</t>
+  </si>
+  <si>
+    <t>Descanse aqui o quanto quiser</t>
+  </si>
+  <si>
+    <t>Destino da Doença Etérea「Sano」</t>
+  </si>
+  <si>
+    <t>Escreve-se Vida, Lê-se Irmãzinha</t>
+  </si>
+  <si>
+    <t>Leilana Auslese</t>
+  </si>
+  <si>
+    <t>Lesha</t>
   </si>
 </sst>
 </file>
@@ -6245,9 +5831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H649"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6294,13 +5880,13 @@
         <v>904</v>
       </c>
       <c r="C3" t="s">
-        <v>1884</v>
+        <v>1576</v>
       </c>
       <c r="D3" t="s">
-        <v>1164</v>
+        <v>1576</v>
       </c>
       <c r="F3" t="s">
-        <v>1532</v>
+        <v>1633</v>
       </c>
       <c r="G3" t="s">
         <v>400</v>
@@ -6314,13 +5900,13 @@
         <v>904</v>
       </c>
       <c r="C4" t="s">
-        <v>1921</v>
+        <v>1613</v>
       </c>
       <c r="D4" t="s">
-        <v>1016</v>
+        <v>1613</v>
       </c>
       <c r="F4" t="s">
-        <v>1506</v>
+        <v>1634</v>
       </c>
       <c r="G4" t="s">
         <v>415</v>
@@ -6340,7 +5926,7 @@
         <v>981</v>
       </c>
       <c r="F5" t="s">
-        <v>1505</v>
+        <v>1635</v>
       </c>
       <c r="G5" t="s">
         <v>214</v>
@@ -6354,13 +5940,13 @@
         <v>904</v>
       </c>
       <c r="C6" t="s">
-        <v>1268</v>
+        <v>1057</v>
       </c>
       <c r="D6" t="s">
-        <v>1268</v>
+        <v>1057</v>
       </c>
       <c r="F6" t="s">
-        <v>1508</v>
+        <v>1636</v>
       </c>
       <c r="G6" t="s">
         <v>798</v>
@@ -6374,13 +5960,13 @@
         <v>904</v>
       </c>
       <c r="C7" t="s">
-        <v>1419</v>
+        <v>1208</v>
       </c>
       <c r="D7" t="s">
-        <v>1419</v>
+        <v>1208</v>
       </c>
       <c r="F7" t="s">
-        <v>1711</v>
+        <v>1403</v>
       </c>
       <c r="G7" t="s">
         <v>263</v>
@@ -6394,13 +5980,13 @@
         <v>904</v>
       </c>
       <c r="C8" t="s">
-        <v>1827</v>
+        <v>1519</v>
       </c>
       <c r="D8" t="s">
-        <v>1274</v>
+        <v>1063</v>
       </c>
       <c r="F8" t="s">
-        <v>1702</v>
+        <v>1394</v>
       </c>
       <c r="G8" t="s">
         <v>81</v>
@@ -6414,13 +6000,13 @@
         <v>904</v>
       </c>
       <c r="C9" t="s">
-        <v>1088</v>
+        <v>1637</v>
       </c>
       <c r="D9" t="s">
-        <v>1088</v>
+        <v>1637</v>
       </c>
       <c r="F9" t="s">
-        <v>1635</v>
+        <v>1327</v>
       </c>
       <c r="G9" t="s">
         <v>343</v>
@@ -6434,13 +6020,13 @@
         <v>904</v>
       </c>
       <c r="C10" t="s">
-        <v>1733</v>
+        <v>1425</v>
       </c>
       <c r="D10" t="s">
-        <v>1289</v>
+        <v>1078</v>
       </c>
       <c r="F10" t="s">
-        <v>1588</v>
+        <v>1280</v>
       </c>
       <c r="G10" t="s">
         <v>227</v>
@@ -6454,13 +6040,13 @@
         <v>904</v>
       </c>
       <c r="C11" t="s">
-        <v>1327</v>
+        <v>1116</v>
       </c>
       <c r="D11" t="s">
-        <v>1327</v>
+        <v>1116</v>
       </c>
       <c r="F11" t="s">
-        <v>1630</v>
+        <v>1322</v>
       </c>
       <c r="G11" t="s">
         <v>148</v>
@@ -6474,13 +6060,13 @@
         <v>904</v>
       </c>
       <c r="C12" t="s">
-        <v>1908</v>
+        <v>1600</v>
       </c>
       <c r="D12" t="s">
-        <v>1169</v>
+        <v>1600</v>
       </c>
       <c r="F12" t="s">
-        <v>1686</v>
+        <v>1378</v>
       </c>
       <c r="G12" t="s">
         <v>446</v>
@@ -6494,13 +6080,13 @@
         <v>904</v>
       </c>
       <c r="C13" t="s">
-        <v>1723</v>
+        <v>1415</v>
       </c>
       <c r="D13" t="s">
-        <v>1296</v>
+        <v>1085</v>
       </c>
       <c r="F13" t="s">
-        <v>1661</v>
+        <v>1353</v>
       </c>
       <c r="G13" t="s">
         <v>463</v>
@@ -6520,7 +6106,7 @@
         <v>974</v>
       </c>
       <c r="F14" t="s">
-        <v>1582</v>
+        <v>1274</v>
       </c>
       <c r="G14" t="s">
         <v>293</v>
@@ -6534,13 +6120,13 @@
         <v>904</v>
       </c>
       <c r="C15" t="s">
-        <v>1890</v>
+        <v>1582</v>
       </c>
       <c r="D15" t="s">
-        <v>1201</v>
+        <v>1582</v>
       </c>
       <c r="F15" t="s">
-        <v>1652</v>
+        <v>1344</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -6554,13 +6140,13 @@
         <v>904</v>
       </c>
       <c r="C16" t="s">
-        <v>1117</v>
+        <v>1638</v>
       </c>
       <c r="D16" t="s">
-        <v>1117</v>
+        <v>1638</v>
       </c>
       <c r="F16" t="s">
-        <v>1645</v>
+        <v>1337</v>
       </c>
       <c r="G16" t="s">
         <v>813</v>
@@ -6574,13 +6160,13 @@
         <v>904</v>
       </c>
       <c r="C17" t="s">
-        <v>1900</v>
+        <v>1592</v>
       </c>
       <c r="D17" t="s">
-        <v>1108</v>
+        <v>1592</v>
       </c>
       <c r="F17" t="s">
-        <v>1710</v>
+        <v>1402</v>
       </c>
       <c r="G17" t="s">
         <v>259</v>
@@ -6594,13 +6180,13 @@
         <v>904</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1344</v>
+        <v>1133</v>
       </c>
       <c r="D18" t="s">
-        <v>1344</v>
+        <v>1133</v>
       </c>
       <c r="F18" t="s">
-        <v>1701</v>
+        <v>1393</v>
       </c>
       <c r="G18" t="s">
         <v>556</v>
@@ -6614,13 +6200,13 @@
         <v>904</v>
       </c>
       <c r="C19" t="s">
-        <v>1766</v>
+        <v>1458</v>
       </c>
       <c r="D19" t="s">
-        <v>1206</v>
+        <v>1458</v>
       </c>
       <c r="F19" t="s">
-        <v>1695</v>
+        <v>1387</v>
       </c>
       <c r="G19" t="s">
         <v>365</v>
@@ -6634,13 +6220,13 @@
         <v>904</v>
       </c>
       <c r="C20" t="s">
-        <v>1349</v>
+        <v>1138</v>
       </c>
       <c r="D20" t="s">
-        <v>1349</v>
+        <v>1138</v>
       </c>
       <c r="F20" t="s">
-        <v>1696</v>
+        <v>1388</v>
       </c>
       <c r="G20" t="s">
         <v>574</v>
@@ -6654,13 +6240,13 @@
         <v>904</v>
       </c>
       <c r="C21" t="s">
-        <v>1883</v>
+        <v>1575</v>
       </c>
       <c r="D21" t="s">
-        <v>1055</v>
+        <v>1575</v>
       </c>
       <c r="F21" t="s">
-        <v>1648</v>
+        <v>1340</v>
       </c>
       <c r="G21" t="s">
         <v>865</v>
@@ -6674,13 +6260,13 @@
         <v>904</v>
       </c>
       <c r="C22" t="s">
-        <v>1738</v>
+        <v>1430</v>
       </c>
       <c r="D22" t="s">
-        <v>1300</v>
+        <v>1089</v>
       </c>
       <c r="F22" t="s">
-        <v>1706</v>
+        <v>1398</v>
       </c>
       <c r="G22" t="s">
         <v>162</v>
@@ -6694,13 +6280,13 @@
         <v>904</v>
       </c>
       <c r="C23" t="s">
-        <v>1712</v>
+        <v>1404</v>
       </c>
       <c r="D23" t="s">
-        <v>1218</v>
+        <v>1007</v>
       </c>
       <c r="F23" t="s">
-        <v>1668</v>
+        <v>1360</v>
       </c>
       <c r="G23" t="s">
         <v>126</v>
@@ -6714,13 +6300,13 @@
         <v>904</v>
       </c>
       <c r="C24" t="s">
-        <v>1450</v>
+        <v>1239</v>
       </c>
       <c r="D24" t="s">
-        <v>1450</v>
+        <v>1239</v>
       </c>
       <c r="F24" t="s">
-        <v>1659</v>
+        <v>1351</v>
       </c>
       <c r="G24" t="s">
         <v>531</v>
@@ -6734,13 +6320,13 @@
         <v>904</v>
       </c>
       <c r="C25" t="s">
-        <v>1443</v>
+        <v>1232</v>
       </c>
       <c r="D25" t="s">
-        <v>1443</v>
+        <v>1232</v>
       </c>
       <c r="F25" t="s">
-        <v>1669</v>
+        <v>1361</v>
       </c>
       <c r="G25" t="s">
         <v>349</v>
@@ -6760,7 +6346,7 @@
         <v>1003</v>
       </c>
       <c r="F26" t="s">
-        <v>1589</v>
+        <v>1281</v>
       </c>
       <c r="G26" t="s">
         <v>501</v>
@@ -6774,13 +6360,13 @@
         <v>904</v>
       </c>
       <c r="C27" t="s">
-        <v>1434</v>
+        <v>1223</v>
       </c>
       <c r="D27" t="s">
-        <v>1434</v>
+        <v>1223</v>
       </c>
       <c r="F27" t="s">
-        <v>1654</v>
+        <v>1346</v>
       </c>
       <c r="G27" t="s">
         <v>287</v>
@@ -6794,13 +6380,13 @@
         <v>904</v>
       </c>
       <c r="C28" t="s">
-        <v>1348</v>
+        <v>1137</v>
       </c>
       <c r="D28" t="s">
-        <v>1348</v>
+        <v>1137</v>
       </c>
       <c r="F28" t="s">
-        <v>1687</v>
+        <v>1379</v>
       </c>
       <c r="G28" t="s">
         <v>724</v>
@@ -6814,13 +6400,13 @@
         <v>904</v>
       </c>
       <c r="C29" t="s">
-        <v>1430</v>
+        <v>1219</v>
       </c>
       <c r="D29" t="s">
-        <v>1430</v>
+        <v>1219</v>
       </c>
       <c r="F29" t="s">
-        <v>1586</v>
+        <v>1278</v>
       </c>
       <c r="G29" t="s">
         <v>538</v>
@@ -6834,13 +6420,13 @@
         <v>904</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1423</v>
+        <v>1212</v>
       </c>
       <c r="D30" t="s">
-        <v>1423</v>
+        <v>1212</v>
       </c>
       <c r="F30" t="s">
-        <v>1624</v>
+        <v>1316</v>
       </c>
       <c r="G30" t="s">
         <v>378</v>
@@ -6854,13 +6440,13 @@
         <v>904</v>
       </c>
       <c r="C31" t="s">
-        <v>1393</v>
+        <v>1182</v>
       </c>
       <c r="D31" t="s">
-        <v>1393</v>
+        <v>1182</v>
       </c>
       <c r="F31" t="s">
-        <v>1597</v>
+        <v>1289</v>
       </c>
       <c r="G31" t="s">
         <v>654</v>
@@ -6874,13 +6460,13 @@
         <v>904</v>
       </c>
       <c r="C32" t="s">
-        <v>1806</v>
+        <v>1498</v>
       </c>
       <c r="D32" t="s">
-        <v>1226</v>
+        <v>1015</v>
       </c>
       <c r="F32" t="s">
-        <v>1667</v>
+        <v>1359</v>
       </c>
       <c r="G32" t="s">
         <v>785</v>
@@ -6894,13 +6480,13 @@
         <v>904</v>
       </c>
       <c r="C33" t="s">
-        <v>1440</v>
+        <v>1229</v>
       </c>
       <c r="D33" t="s">
-        <v>1440</v>
+        <v>1229</v>
       </c>
       <c r="F33" t="s">
-        <v>1574</v>
+        <v>1266</v>
       </c>
       <c r="G33" t="s">
         <v>565</v>
@@ -6914,13 +6500,13 @@
         <v>904</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1757</v>
+        <v>1449</v>
       </c>
       <c r="D34" t="s">
-        <v>1442</v>
+        <v>1231</v>
       </c>
       <c r="F34" t="s">
-        <v>1625</v>
+        <v>1317</v>
       </c>
       <c r="G34" t="s">
         <v>389</v>
@@ -6934,13 +6520,13 @@
         <v>904</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1745</v>
+        <v>1437</v>
       </c>
       <c r="D35" t="s">
-        <v>1250</v>
+        <v>1039</v>
       </c>
       <c r="F35" t="s">
-        <v>1642</v>
+        <v>1334</v>
       </c>
       <c r="G35" t="s">
         <v>718</v>
@@ -6954,13 +6540,13 @@
         <v>904</v>
       </c>
       <c r="C36" t="s">
-        <v>1838</v>
+        <v>1530</v>
       </c>
       <c r="D36" t="s">
-        <v>1149</v>
+        <v>1530</v>
       </c>
       <c r="F36" t="s">
-        <v>1626</v>
+        <v>1318</v>
       </c>
       <c r="G36" t="s">
         <v>405</v>
@@ -6974,13 +6560,13 @@
         <v>904</v>
       </c>
       <c r="C37" t="s">
-        <v>1853</v>
+        <v>1545</v>
       </c>
       <c r="D37" t="s">
-        <v>1133</v>
+        <v>1545</v>
       </c>
       <c r="F37" t="s">
-        <v>1671</v>
+        <v>1363</v>
       </c>
       <c r="G37" t="s">
         <v>106</v>
@@ -6994,13 +6580,13 @@
         <v>904</v>
       </c>
       <c r="C38" t="s">
-        <v>1384</v>
+        <v>1173</v>
       </c>
       <c r="D38" t="s">
-        <v>1384</v>
+        <v>1173</v>
       </c>
       <c r="F38" t="s">
-        <v>1663</v>
+        <v>1355</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -7014,13 +6600,13 @@
         <v>904</v>
       </c>
       <c r="C39" t="s">
-        <v>1426</v>
+        <v>1215</v>
       </c>
       <c r="D39" t="s">
-        <v>1426</v>
+        <v>1215</v>
       </c>
       <c r="F39" t="s">
-        <v>1649</v>
+        <v>1341</v>
       </c>
       <c r="G39" t="s">
         <v>702</v>
@@ -7034,13 +6620,13 @@
         <v>904</v>
       </c>
       <c r="C40" t="s">
-        <v>1241</v>
+        <v>1030</v>
       </c>
       <c r="D40" t="s">
-        <v>1241</v>
+        <v>1030</v>
       </c>
       <c r="F40" t="s">
-        <v>1585</v>
+        <v>1277</v>
       </c>
       <c r="G40" t="s">
         <v>224</v>
@@ -7054,13 +6640,13 @@
         <v>904</v>
       </c>
       <c r="C41" t="s">
-        <v>1836</v>
+        <v>1528</v>
       </c>
       <c r="D41" t="s">
-        <v>1275</v>
+        <v>1064</v>
       </c>
       <c r="F41" t="s">
-        <v>1700</v>
+        <v>1392</v>
       </c>
       <c r="G41" t="s">
         <v>514</v>
@@ -7074,13 +6660,13 @@
         <v>904</v>
       </c>
       <c r="C42" t="s">
-        <v>1461</v>
+        <v>1250</v>
       </c>
       <c r="D42" t="s">
-        <v>1461</v>
+        <v>1250</v>
       </c>
       <c r="F42" t="s">
-        <v>1699</v>
+        <v>1391</v>
       </c>
       <c r="G42" t="s">
         <v>367</v>
@@ -7094,13 +6680,13 @@
         <v>904</v>
       </c>
       <c r="C43" t="s">
-        <v>1865</v>
+        <v>1557</v>
       </c>
       <c r="D43" t="s">
-        <v>1232</v>
+        <v>1021</v>
       </c>
       <c r="F43" t="s">
-        <v>1633</v>
+        <v>1325</v>
       </c>
       <c r="G43" t="s">
         <v>321</v>
@@ -7114,13 +6700,13 @@
         <v>904</v>
       </c>
       <c r="C44" t="s">
-        <v>1433</v>
+        <v>1222</v>
       </c>
       <c r="D44" t="s">
-        <v>1433</v>
+        <v>1222</v>
       </c>
       <c r="F44" t="s">
-        <v>1708</v>
+        <v>1400</v>
       </c>
       <c r="G44" t="s">
         <v>59</v>
@@ -7134,13 +6720,13 @@
         <v>904</v>
       </c>
       <c r="C45" t="s">
-        <v>1843</v>
+        <v>1535</v>
       </c>
       <c r="D45" t="s">
-        <v>1194</v>
+        <v>1535</v>
       </c>
       <c r="F45" t="s">
-        <v>1705</v>
+        <v>1397</v>
       </c>
       <c r="G45" t="s">
         <v>738</v>
@@ -7154,13 +6740,13 @@
         <v>904</v>
       </c>
       <c r="C46" t="s">
-        <v>1852</v>
+        <v>1544</v>
       </c>
       <c r="D46" t="s">
-        <v>1130</v>
+        <v>1544</v>
       </c>
       <c r="F46" t="s">
-        <v>1690</v>
+        <v>1382</v>
       </c>
       <c r="G46" t="s">
         <v>669</v>
@@ -7174,13 +6760,13 @@
         <v>904</v>
       </c>
       <c r="C47" t="s">
-        <v>1404</v>
+        <v>1193</v>
       </c>
       <c r="D47" t="s">
-        <v>1404</v>
+        <v>1193</v>
       </c>
       <c r="F47" t="s">
-        <v>1594</v>
+        <v>1286</v>
       </c>
       <c r="G47" t="s">
         <v>884</v>
@@ -7194,13 +6780,13 @@
         <v>904</v>
       </c>
       <c r="C48" t="s">
-        <v>1402</v>
+        <v>1191</v>
       </c>
       <c r="D48" t="s">
-        <v>1402</v>
+        <v>1191</v>
       </c>
       <c r="F48" t="s">
-        <v>1593</v>
+        <v>1285</v>
       </c>
       <c r="G48" t="s">
         <v>252</v>
@@ -7214,13 +6800,13 @@
         <v>904</v>
       </c>
       <c r="C49" t="s">
-        <v>1382</v>
+        <v>1171</v>
       </c>
       <c r="D49" t="s">
-        <v>1382</v>
+        <v>1171</v>
       </c>
       <c r="F49" t="s">
-        <v>1692</v>
+        <v>1384</v>
       </c>
       <c r="G49" t="s">
         <v>684</v>
@@ -7234,13 +6820,13 @@
         <v>904</v>
       </c>
       <c r="C50" t="s">
-        <v>1823</v>
+        <v>1515</v>
       </c>
       <c r="D50" t="s">
-        <v>1099</v>
+        <v>1515</v>
       </c>
       <c r="F50" t="s">
-        <v>1573</v>
+        <v>1265</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -7254,13 +6840,13 @@
         <v>904</v>
       </c>
       <c r="C51" t="s">
-        <v>1824</v>
+        <v>1516</v>
       </c>
       <c r="D51" t="s">
-        <v>1171</v>
+        <v>1516</v>
       </c>
       <c r="F51" t="s">
-        <v>1694</v>
+        <v>1386</v>
       </c>
       <c r="G51" t="s">
         <v>254</v>
@@ -7274,13 +6860,13 @@
         <v>904</v>
       </c>
       <c r="C52" t="s">
-        <v>1794</v>
+        <v>1486</v>
       </c>
       <c r="D52" t="s">
-        <v>1315</v>
+        <v>1104</v>
       </c>
       <c r="F52" t="s">
-        <v>1620</v>
+        <v>1312</v>
       </c>
       <c r="G52" t="s">
         <v>761</v>
@@ -7294,13 +6880,13 @@
         <v>904</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1750</v>
+        <v>1442</v>
       </c>
       <c r="D53" t="s">
-        <v>1311</v>
+        <v>1100</v>
       </c>
       <c r="F53" t="s">
-        <v>1613</v>
+        <v>1305</v>
       </c>
       <c r="G53" t="s">
         <v>179</v>
@@ -7314,13 +6900,13 @@
         <v>904</v>
       </c>
       <c r="C54" t="s">
-        <v>1734</v>
+        <v>1426</v>
       </c>
       <c r="D54" t="s">
-        <v>1222</v>
+        <v>1011</v>
       </c>
       <c r="F54" t="s">
-        <v>1617</v>
+        <v>1309</v>
       </c>
       <c r="G54" t="s">
         <v>142</v>
@@ -7334,13 +6920,13 @@
         <v>904</v>
       </c>
       <c r="C55" t="s">
-        <v>1735</v>
+        <v>1427</v>
       </c>
       <c r="D55" t="s">
-        <v>1298</v>
+        <v>1087</v>
       </c>
       <c r="F55" t="s">
-        <v>1615</v>
+        <v>1307</v>
       </c>
       <c r="G55" t="s">
         <v>886</v>
@@ -7354,13 +6940,13 @@
         <v>904</v>
       </c>
       <c r="C56" t="s">
-        <v>1179</v>
+        <v>1639</v>
       </c>
       <c r="D56" t="s">
-        <v>1179</v>
+        <v>1639</v>
       </c>
       <c r="F56" t="s">
-        <v>1581</v>
+        <v>1273</v>
       </c>
       <c r="G56" t="s">
         <v>548</v>
@@ -7374,13 +6960,13 @@
         <v>904</v>
       </c>
       <c r="C57" t="s">
-        <v>1276</v>
+        <v>1065</v>
       </c>
       <c r="D57" t="s">
-        <v>1276</v>
+        <v>1065</v>
       </c>
       <c r="F57" t="s">
-        <v>1570</v>
+        <v>1262</v>
       </c>
       <c r="G57" t="s">
         <v>651</v>
@@ -7394,13 +6980,13 @@
         <v>904</v>
       </c>
       <c r="C58" t="s">
-        <v>1075</v>
+        <v>1640</v>
       </c>
       <c r="D58" t="s">
-        <v>1075</v>
+        <v>1640</v>
       </c>
       <c r="F58" t="s">
-        <v>1670</v>
+        <v>1362</v>
       </c>
       <c r="G58" t="s">
         <v>795</v>
@@ -7414,13 +7000,13 @@
         <v>904</v>
       </c>
       <c r="C59" t="s">
-        <v>1167</v>
+        <v>1641</v>
       </c>
       <c r="D59" t="s">
-        <v>1167</v>
+        <v>1641</v>
       </c>
       <c r="F59" t="s">
-        <v>1666</v>
+        <v>1358</v>
       </c>
       <c r="G59" t="s">
         <v>238</v>
@@ -7434,13 +7020,13 @@
         <v>904</v>
       </c>
       <c r="C60" t="s">
-        <v>1321</v>
+        <v>1110</v>
       </c>
       <c r="D60" t="s">
-        <v>1321</v>
+        <v>1110</v>
       </c>
       <c r="F60" t="s">
-        <v>1677</v>
+        <v>1369</v>
       </c>
       <c r="G60" t="s">
         <v>678</v>
@@ -7454,13 +7040,13 @@
         <v>904</v>
       </c>
       <c r="C61" t="s">
-        <v>1391</v>
+        <v>1180</v>
       </c>
       <c r="D61" t="s">
-        <v>1391</v>
+        <v>1180</v>
       </c>
       <c r="F61" t="s">
-        <v>1698</v>
+        <v>1390</v>
       </c>
       <c r="G61" t="s">
         <v>84</v>
@@ -7474,13 +7060,13 @@
         <v>904</v>
       </c>
       <c r="C62" t="s">
-        <v>1007</v>
+        <v>1642</v>
       </c>
       <c r="D62" t="s">
-        <v>1007</v>
+        <v>1642</v>
       </c>
       <c r="F62" t="s">
-        <v>1678</v>
+        <v>1370</v>
       </c>
       <c r="G62" t="s">
         <v>832</v>
@@ -7494,13 +7080,13 @@
         <v>904</v>
       </c>
       <c r="C63" t="s">
-        <v>1732</v>
+        <v>1424</v>
       </c>
       <c r="D63" t="s">
-        <v>1301</v>
+        <v>1090</v>
       </c>
       <c r="F63" t="s">
-        <v>1618</v>
+        <v>1310</v>
       </c>
       <c r="G63" t="s">
         <v>206</v>
@@ -7514,13 +7100,13 @@
         <v>904</v>
       </c>
       <c r="C64" t="s">
-        <v>1933</v>
+        <v>1625</v>
       </c>
       <c r="D64" t="s">
-        <v>1131</v>
+        <v>1625</v>
       </c>
       <c r="F64" t="s">
-        <v>1684</v>
+        <v>1376</v>
       </c>
       <c r="G64" t="s">
         <v>602</v>
@@ -7534,13 +7120,13 @@
         <v>904</v>
       </c>
       <c r="C65" t="s">
-        <v>1768</v>
+        <v>1460</v>
       </c>
       <c r="D65" t="s">
-        <v>1281</v>
+        <v>1070</v>
       </c>
       <c r="F65" t="s">
-        <v>1600</v>
+        <v>1292</v>
       </c>
       <c r="G65" t="s">
         <v>543</v>
@@ -7554,13 +7140,13 @@
         <v>904</v>
       </c>
       <c r="C66" t="s">
-        <v>1203</v>
+        <v>1643</v>
       </c>
       <c r="D66" t="s">
-        <v>1203</v>
+        <v>1643</v>
       </c>
       <c r="F66" t="s">
-        <v>1641</v>
+        <v>1333</v>
       </c>
       <c r="G66" t="s">
         <v>631</v>
@@ -7574,13 +7160,13 @@
         <v>904</v>
       </c>
       <c r="C67" t="s">
-        <v>1156</v>
+        <v>1644</v>
       </c>
       <c r="D67" t="s">
-        <v>1156</v>
+        <v>1644</v>
       </c>
       <c r="F67" t="s">
-        <v>1572</v>
+        <v>1264</v>
       </c>
       <c r="G67" t="s">
         <v>690</v>
@@ -7600,7 +7186,7 @@
         <v>1002</v>
       </c>
       <c r="F68" t="s">
-        <v>1650</v>
+        <v>1342</v>
       </c>
       <c r="G68" t="s">
         <v>295</v>
@@ -7614,13 +7200,13 @@
         <v>904</v>
       </c>
       <c r="C69" t="s">
-        <v>1726</v>
+        <v>1418</v>
       </c>
       <c r="D69" t="s">
-        <v>1310</v>
+        <v>1099</v>
       </c>
       <c r="F69" t="s">
-        <v>1680</v>
+        <v>1372</v>
       </c>
       <c r="G69" t="s">
         <v>430</v>
@@ -7634,13 +7220,13 @@
         <v>904</v>
       </c>
       <c r="C70" t="s">
-        <v>1252</v>
+        <v>1041</v>
       </c>
       <c r="D70" t="s">
-        <v>1252</v>
+        <v>1041</v>
       </c>
       <c r="F70" t="s">
-        <v>1651</v>
+        <v>1343</v>
       </c>
       <c r="G70" t="s">
         <v>191</v>
@@ -7654,13 +7240,13 @@
         <v>904</v>
       </c>
       <c r="C71" t="s">
-        <v>1386</v>
+        <v>1175</v>
       </c>
       <c r="D71" t="s">
-        <v>1386</v>
+        <v>1175</v>
       </c>
       <c r="F71" t="s">
-        <v>1640</v>
+        <v>1332</v>
       </c>
       <c r="G71" t="s">
         <v>25</v>
@@ -7674,13 +7260,13 @@
         <v>904</v>
       </c>
       <c r="C72" t="s">
-        <v>1729</v>
+        <v>1421</v>
       </c>
       <c r="D72" t="s">
-        <v>1231</v>
+        <v>1020</v>
       </c>
       <c r="F72" t="s">
-        <v>1685</v>
+        <v>1377</v>
       </c>
       <c r="G72" t="s">
         <v>164</v>
@@ -7694,13 +7280,13 @@
         <v>904</v>
       </c>
       <c r="C73" t="s">
-        <v>1215</v>
+        <v>1645</v>
       </c>
       <c r="D73" t="s">
-        <v>1215</v>
+        <v>1645</v>
       </c>
       <c r="F73" t="s">
-        <v>1628</v>
+        <v>1320</v>
       </c>
       <c r="G73" t="s">
         <v>357</v>
@@ -7714,13 +7300,13 @@
         <v>904</v>
       </c>
       <c r="C74" t="s">
-        <v>1011</v>
+        <v>1646</v>
       </c>
       <c r="D74" t="s">
-        <v>1011</v>
+        <v>1646</v>
       </c>
       <c r="F74" t="s">
-        <v>1675</v>
+        <v>1367</v>
       </c>
       <c r="G74" t="s">
         <v>484</v>
@@ -7734,13 +7320,13 @@
         <v>904</v>
       </c>
       <c r="C75" t="s">
-        <v>1872</v>
+        <v>1564</v>
       </c>
       <c r="D75" t="s">
-        <v>1205</v>
+        <v>1564</v>
       </c>
       <c r="F75" t="s">
-        <v>1653</v>
+        <v>1345</v>
       </c>
       <c r="G75" t="s">
         <v>133</v>
@@ -7754,13 +7340,13 @@
         <v>904</v>
       </c>
       <c r="C76" t="s">
-        <v>1451</v>
+        <v>1240</v>
       </c>
       <c r="D76" t="s">
-        <v>1451</v>
+        <v>1240</v>
       </c>
       <c r="F76" t="s">
-        <v>1612</v>
+        <v>1304</v>
       </c>
       <c r="G76" t="s">
         <v>562</v>
@@ -7774,13 +7360,13 @@
         <v>904</v>
       </c>
       <c r="C77" t="s">
-        <v>1406</v>
+        <v>1195</v>
       </c>
       <c r="D77" t="s">
-        <v>1406</v>
+        <v>1195</v>
       </c>
       <c r="F77" t="s">
-        <v>1647</v>
+        <v>1339</v>
       </c>
       <c r="G77" t="s">
         <v>692</v>
@@ -7794,13 +7380,13 @@
         <v>904</v>
       </c>
       <c r="C78" t="s">
-        <v>1871</v>
+        <v>1563</v>
       </c>
       <c r="D78" t="s">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="F78" t="s">
-        <v>1601</v>
+        <v>1293</v>
       </c>
       <c r="G78" t="s">
         <v>273</v>
@@ -7814,13 +7400,13 @@
         <v>904</v>
       </c>
       <c r="C79" t="s">
-        <v>1870</v>
+        <v>1562</v>
       </c>
       <c r="D79" t="s">
-        <v>1271</v>
+        <v>1060</v>
       </c>
       <c r="F79" t="s">
-        <v>1681</v>
+        <v>1373</v>
       </c>
       <c r="G79" t="s">
         <v>345</v>
@@ -7834,13 +7420,13 @@
         <v>904</v>
       </c>
       <c r="C80" t="s">
-        <v>1377</v>
+        <v>1166</v>
       </c>
       <c r="D80" t="s">
-        <v>1377</v>
+        <v>1166</v>
       </c>
       <c r="F80" t="s">
-        <v>1697</v>
+        <v>1389</v>
       </c>
       <c r="G80" t="s">
         <v>608</v>
@@ -7854,13 +7440,13 @@
         <v>904</v>
       </c>
       <c r="C81" t="s">
-        <v>1458</v>
+        <v>1247</v>
       </c>
       <c r="D81" t="s">
-        <v>1458</v>
+        <v>1247</v>
       </c>
       <c r="F81" t="s">
-        <v>1592</v>
+        <v>1284</v>
       </c>
       <c r="G81" t="s">
         <v>93</v>
@@ -7874,13 +7460,13 @@
         <v>904</v>
       </c>
       <c r="C82" t="s">
-        <v>1410</v>
+        <v>1199</v>
       </c>
       <c r="D82" t="s">
-        <v>1410</v>
+        <v>1199</v>
       </c>
       <c r="F82" t="s">
-        <v>1691</v>
+        <v>1383</v>
       </c>
       <c r="G82" t="s">
         <v>122</v>
@@ -7894,13 +7480,13 @@
         <v>904</v>
       </c>
       <c r="C83" t="s">
-        <v>1825</v>
+        <v>1517</v>
       </c>
       <c r="D83" t="s">
-        <v>1313</v>
+        <v>1102</v>
       </c>
       <c r="F83" t="s">
-        <v>1616</v>
+        <v>1308</v>
       </c>
       <c r="G83" t="s">
         <v>396</v>
@@ -7914,13 +7500,13 @@
         <v>904</v>
       </c>
       <c r="C84" t="s">
-        <v>1889</v>
+        <v>1581</v>
       </c>
       <c r="D84" t="s">
-        <v>1060</v>
+        <v>1581</v>
       </c>
       <c r="F84" t="s">
-        <v>1682</v>
+        <v>1374</v>
       </c>
       <c r="G84" t="s">
         <v>613</v>
@@ -7934,13 +7520,13 @@
         <v>904</v>
       </c>
       <c r="C85" t="s">
-        <v>1459</v>
+        <v>1248</v>
       </c>
       <c r="D85" t="s">
-        <v>1459</v>
+        <v>1248</v>
       </c>
       <c r="F85" t="s">
-        <v>1672</v>
+        <v>1364</v>
       </c>
       <c r="G85" t="s">
         <v>113</v>
@@ -7954,13 +7540,13 @@
         <v>904</v>
       </c>
       <c r="C86" t="s">
-        <v>1896</v>
+        <v>1588</v>
       </c>
       <c r="D86" t="s">
-        <v>1204</v>
+        <v>1588</v>
       </c>
       <c r="F86" t="s">
-        <v>1658</v>
+        <v>1350</v>
       </c>
       <c r="G86" t="s">
         <v>53</v>
@@ -7974,13 +7560,13 @@
         <v>904</v>
       </c>
       <c r="C87" t="s">
-        <v>1721</v>
+        <v>1413</v>
       </c>
       <c r="D87" t="s">
-        <v>1307</v>
+        <v>1096</v>
       </c>
       <c r="F87" t="s">
-        <v>1614</v>
+        <v>1306</v>
       </c>
       <c r="G87" t="s">
         <v>151</v>
@@ -7994,13 +7580,13 @@
         <v>904</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1374</v>
+        <v>1163</v>
       </c>
       <c r="D88" t="s">
-        <v>1374</v>
+        <v>1163</v>
       </c>
       <c r="F88" t="s">
-        <v>1644</v>
+        <v>1336</v>
       </c>
       <c r="G88" t="s">
         <v>181</v>
@@ -8014,13 +7600,13 @@
         <v>904</v>
       </c>
       <c r="C89" t="s">
-        <v>1340</v>
+        <v>1129</v>
       </c>
       <c r="D89" t="s">
-        <v>1340</v>
+        <v>1129</v>
       </c>
       <c r="F89" t="s">
-        <v>1693</v>
+        <v>1385</v>
       </c>
       <c r="G89" t="s">
         <v>616</v>
@@ -8034,13 +7620,13 @@
         <v>904</v>
       </c>
       <c r="C90" t="s">
-        <v>1899</v>
+        <v>1591</v>
       </c>
       <c r="D90" t="s">
-        <v>1082</v>
+        <v>1591</v>
       </c>
       <c r="F90" t="s">
-        <v>1660</v>
+        <v>1352</v>
       </c>
       <c r="G90" t="s">
         <v>881</v>
@@ -8054,13 +7640,13 @@
         <v>904</v>
       </c>
       <c r="C91" t="s">
-        <v>1769</v>
+        <v>1461</v>
       </c>
       <c r="D91" t="s">
-        <v>1078</v>
+        <v>1461</v>
       </c>
       <c r="F91" t="s">
-        <v>1664</v>
+        <v>1356</v>
       </c>
       <c r="G91" t="s">
         <v>269</v>
@@ -8074,13 +7660,13 @@
         <v>904</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1718</v>
+        <v>1410</v>
       </c>
       <c r="D92" t="s">
-        <v>1249</v>
+        <v>1038</v>
       </c>
       <c r="F92" t="s">
-        <v>1657</v>
+        <v>1349</v>
       </c>
       <c r="G92" t="s">
         <v>91</v>
@@ -8094,13 +7680,13 @@
         <v>904</v>
       </c>
       <c r="C93" t="s">
-        <v>1145</v>
+        <v>1647</v>
       </c>
       <c r="D93" t="s">
-        <v>1145</v>
+        <v>1647</v>
       </c>
       <c r="F93" t="s">
-        <v>1590</v>
+        <v>1282</v>
       </c>
       <c r="G93" t="s">
         <v>554</v>
@@ -8114,13 +7700,13 @@
         <v>904</v>
       </c>
       <c r="C94" t="s">
-        <v>1010</v>
+        <v>1648</v>
       </c>
       <c r="D94" t="s">
-        <v>1010</v>
+        <v>1648</v>
       </c>
       <c r="F94" t="s">
-        <v>1709</v>
+        <v>1401</v>
       </c>
       <c r="G94" t="s">
         <v>222</v>
@@ -8134,13 +7720,13 @@
         <v>904</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>1749</v>
+        <v>1441</v>
       </c>
       <c r="D95" t="s">
-        <v>1297</v>
+        <v>1086</v>
       </c>
       <c r="F95" t="s">
-        <v>1662</v>
+        <v>1354</v>
       </c>
       <c r="G95" t="s">
         <v>128</v>
@@ -8154,13 +7740,13 @@
         <v>904</v>
       </c>
       <c r="C96" t="s">
-        <v>1453</v>
+        <v>1242</v>
       </c>
       <c r="D96" t="s">
-        <v>1453</v>
+        <v>1242</v>
       </c>
       <c r="F96" t="s">
-        <v>1676</v>
+        <v>1368</v>
       </c>
       <c r="G96" t="s">
         <v>159</v>
@@ -8174,13 +7760,13 @@
         <v>904</v>
       </c>
       <c r="C97" t="s">
-        <v>1805</v>
+        <v>1497</v>
       </c>
       <c r="D97" t="s">
-        <v>1032</v>
+        <v>1497</v>
       </c>
       <c r="F97" t="s">
-        <v>1704</v>
+        <v>1396</v>
       </c>
       <c r="G97" t="s">
         <v>398</v>
@@ -8200,7 +7786,7 @@
         <v>1004</v>
       </c>
       <c r="F98" t="s">
-        <v>1623</v>
+        <v>1315</v>
       </c>
       <c r="G98" t="s">
         <v>793</v>
@@ -8214,13 +7800,13 @@
         <v>904</v>
       </c>
       <c r="C99" t="s">
-        <v>1416</v>
+        <v>1205</v>
       </c>
       <c r="D99" t="s">
-        <v>1416</v>
+        <v>1205</v>
       </c>
       <c r="F99" t="s">
-        <v>1679</v>
+        <v>1371</v>
       </c>
       <c r="G99" t="s">
         <v>578</v>
@@ -8234,13 +7820,13 @@
         <v>904</v>
       </c>
       <c r="C100" t="s">
-        <v>1329</v>
+        <v>1118</v>
       </c>
       <c r="D100" t="s">
-        <v>1329</v>
+        <v>1118</v>
       </c>
       <c r="F100" t="s">
-        <v>1655</v>
+        <v>1347</v>
       </c>
       <c r="G100" t="s">
         <v>241</v>
@@ -8254,13 +7840,13 @@
         <v>904</v>
       </c>
       <c r="C101" t="s">
-        <v>1782</v>
+        <v>1474</v>
       </c>
       <c r="D101" t="s">
-        <v>1302</v>
+        <v>1091</v>
       </c>
       <c r="F101" t="s">
-        <v>1637</v>
+        <v>1329</v>
       </c>
       <c r="G101" t="s">
         <v>771</v>
@@ -8274,13 +7860,13 @@
         <v>904</v>
       </c>
       <c r="C102" t="s">
-        <v>1814</v>
+        <v>1506</v>
       </c>
       <c r="D102" t="s">
-        <v>1191</v>
+        <v>1506</v>
       </c>
       <c r="F102" t="s">
-        <v>1610</v>
+        <v>1302</v>
       </c>
       <c r="G102" t="s">
         <v>209</v>
@@ -8294,13 +7880,13 @@
         <v>904</v>
       </c>
       <c r="C103" t="s">
-        <v>1925</v>
+        <v>1617</v>
       </c>
       <c r="D103" t="s">
-        <v>1295</v>
+        <v>1084</v>
       </c>
       <c r="F103" t="s">
-        <v>1611</v>
+        <v>1303</v>
       </c>
       <c r="G103" t="s">
         <v>236</v>
@@ -8314,13 +7900,13 @@
         <v>904</v>
       </c>
       <c r="C104" t="s">
-        <v>1198</v>
+        <v>1649</v>
       </c>
       <c r="D104" t="s">
-        <v>1198</v>
+        <v>1649</v>
       </c>
       <c r="F104" t="s">
-        <v>1575</v>
+        <v>1267</v>
       </c>
       <c r="G104" t="s">
         <v>229</v>
@@ -8334,13 +7920,13 @@
         <v>904</v>
       </c>
       <c r="C105" t="s">
-        <v>1724</v>
+        <v>1416</v>
       </c>
       <c r="D105" t="s">
-        <v>1225</v>
+        <v>1014</v>
       </c>
       <c r="F105" t="s">
-        <v>1580</v>
+        <v>1272</v>
       </c>
       <c r="G105" t="s">
         <v>440</v>
@@ -8354,13 +7940,13 @@
         <v>904</v>
       </c>
       <c r="C106" t="s">
-        <v>1074</v>
+        <v>1650</v>
       </c>
       <c r="D106" t="s">
-        <v>1074</v>
+        <v>1650</v>
       </c>
       <c r="F106" t="s">
-        <v>1607</v>
+        <v>1299</v>
       </c>
       <c r="G106" t="s">
         <v>329</v>
@@ -8374,13 +7960,13 @@
         <v>904</v>
       </c>
       <c r="C107" t="s">
-        <v>1425</v>
+        <v>1214</v>
       </c>
       <c r="D107" t="s">
-        <v>1425</v>
+        <v>1214</v>
       </c>
       <c r="F107" t="s">
-        <v>1598</v>
+        <v>1290</v>
       </c>
       <c r="G107" t="s">
         <v>115</v>
@@ -8394,13 +7980,13 @@
         <v>904</v>
       </c>
       <c r="C108" t="s">
-        <v>1778</v>
+        <v>1470</v>
       </c>
       <c r="D108" t="s">
-        <v>1285</v>
+        <v>1074</v>
       </c>
       <c r="F108" t="s">
-        <v>1683</v>
+        <v>1375</v>
       </c>
       <c r="G108" t="s">
         <v>605</v>
@@ -8414,13 +8000,13 @@
         <v>904</v>
       </c>
       <c r="C109" t="s">
-        <v>1431</v>
+        <v>1220</v>
       </c>
       <c r="D109" t="s">
-        <v>1431</v>
+        <v>1220</v>
       </c>
       <c r="F109" t="s">
-        <v>1596</v>
+        <v>1288</v>
       </c>
       <c r="G109" t="s">
         <v>244</v>
@@ -8434,13 +8020,13 @@
         <v>904</v>
       </c>
       <c r="C110" t="s">
-        <v>1417</v>
+        <v>1206</v>
       </c>
       <c r="D110" t="s">
-        <v>1417</v>
+        <v>1206</v>
       </c>
       <c r="F110" t="s">
-        <v>1595</v>
+        <v>1287</v>
       </c>
       <c r="G110" t="s">
         <v>387</v>
@@ -8454,13 +8040,13 @@
         <v>904</v>
       </c>
       <c r="C111" t="s">
-        <v>1392</v>
+        <v>1181</v>
       </c>
       <c r="D111" t="s">
-        <v>1392</v>
+        <v>1181</v>
       </c>
       <c r="F111" t="s">
-        <v>1608</v>
+        <v>1300</v>
       </c>
       <c r="G111" t="s">
         <v>71</v>
@@ -8474,13 +8060,13 @@
         <v>904</v>
       </c>
       <c r="C112" t="s">
-        <v>1021</v>
+        <v>1651</v>
       </c>
       <c r="D112" t="s">
-        <v>1021</v>
+        <v>1651</v>
       </c>
       <c r="F112" t="s">
-        <v>1609</v>
+        <v>1301</v>
       </c>
       <c r="G112" t="s">
         <v>204</v>
@@ -8494,13 +8080,13 @@
         <v>904</v>
       </c>
       <c r="C113" t="s">
-        <v>1804</v>
+        <v>1496</v>
       </c>
       <c r="D113" t="s">
-        <v>1193</v>
+        <v>1496</v>
       </c>
       <c r="F113" t="s">
-        <v>1643</v>
+        <v>1335</v>
       </c>
       <c r="G113" t="s">
         <v>459</v>
@@ -8514,13 +8100,13 @@
         <v>904</v>
       </c>
       <c r="C114" t="s">
-        <v>1336</v>
+        <v>1125</v>
       </c>
       <c r="D114" t="s">
-        <v>1336</v>
+        <v>1125</v>
       </c>
       <c r="F114" t="s">
-        <v>1689</v>
+        <v>1381</v>
       </c>
       <c r="G114" t="s">
         <v>257</v>
@@ -8534,13 +8120,13 @@
         <v>904</v>
       </c>
       <c r="C115" t="s">
-        <v>1258</v>
+        <v>1047</v>
       </c>
       <c r="D115" t="s">
-        <v>1258</v>
+        <v>1047</v>
       </c>
       <c r="F115" t="s">
-        <v>1577</v>
+        <v>1269</v>
       </c>
       <c r="G115" t="s">
         <v>109</v>
@@ -8554,13 +8140,13 @@
         <v>904</v>
       </c>
       <c r="C116" t="s">
-        <v>1224</v>
+        <v>1013</v>
       </c>
       <c r="D116" t="s">
-        <v>1224</v>
+        <v>1013</v>
       </c>
       <c r="F116" t="s">
-        <v>1606</v>
+        <v>1298</v>
       </c>
       <c r="G116" t="s">
         <v>666</v>
@@ -8574,13 +8160,13 @@
         <v>904</v>
       </c>
       <c r="C117" t="s">
-        <v>1463</v>
+        <v>1252</v>
       </c>
       <c r="D117" t="s">
-        <v>1463</v>
+        <v>1252</v>
       </c>
       <c r="F117" t="s">
-        <v>1603</v>
+        <v>1295</v>
       </c>
       <c r="G117" t="s">
         <v>218</v>
@@ -8594,13 +8180,13 @@
         <v>904</v>
       </c>
       <c r="C118" t="s">
-        <v>1246</v>
+        <v>1035</v>
       </c>
       <c r="D118" t="s">
-        <v>1246</v>
+        <v>1035</v>
       </c>
       <c r="F118" t="s">
-        <v>1605</v>
+        <v>1297</v>
       </c>
       <c r="G118" t="s">
         <v>167</v>
@@ -8614,13 +8200,13 @@
         <v>904</v>
       </c>
       <c r="C119" t="s">
-        <v>1013</v>
+        <v>1652</v>
       </c>
       <c r="D119" t="s">
-        <v>1013</v>
+        <v>1652</v>
       </c>
       <c r="F119" t="s">
-        <v>1578</v>
+        <v>1270</v>
       </c>
       <c r="G119" t="s">
         <v>120</v>
@@ -8634,13 +8220,13 @@
         <v>904</v>
       </c>
       <c r="C120" t="s">
-        <v>1881</v>
+        <v>1573</v>
       </c>
       <c r="D120" t="s">
-        <v>1054</v>
+        <v>1573</v>
       </c>
       <c r="F120" t="s">
-        <v>1579</v>
+        <v>1271</v>
       </c>
       <c r="G120" t="s">
         <v>700</v>
@@ -8654,13 +8240,13 @@
         <v>904</v>
       </c>
       <c r="C121" t="s">
-        <v>1731</v>
+        <v>1423</v>
       </c>
       <c r="D121" t="s">
-        <v>1144</v>
+        <v>1423</v>
       </c>
       <c r="F121" t="s">
-        <v>1604</v>
+        <v>1296</v>
       </c>
       <c r="G121" t="s">
         <v>841</v>
@@ -8674,13 +8260,13 @@
         <v>904</v>
       </c>
       <c r="C122" t="s">
-        <v>1387</v>
+        <v>1176</v>
       </c>
       <c r="D122" t="s">
-        <v>1387</v>
+        <v>1176</v>
       </c>
       <c r="F122" t="s">
-        <v>1622</v>
+        <v>1314</v>
       </c>
       <c r="G122" t="s">
         <v>624</v>
@@ -8694,13 +8280,13 @@
         <v>904</v>
       </c>
       <c r="C123" t="s">
-        <v>1930</v>
+        <v>1622</v>
       </c>
       <c r="D123" t="s">
-        <v>1255</v>
+        <v>1044</v>
       </c>
       <c r="F123" t="s">
-        <v>1621</v>
+        <v>1313</v>
       </c>
       <c r="G123" t="s">
         <v>638</v>
@@ -8714,13 +8300,13 @@
         <v>904</v>
       </c>
       <c r="C124" t="s">
-        <v>1931</v>
+        <v>1623</v>
       </c>
       <c r="D124" t="s">
-        <v>1269</v>
+        <v>1058</v>
       </c>
       <c r="F124" t="s">
-        <v>1571</v>
+        <v>1263</v>
       </c>
       <c r="G124" t="s">
         <v>498</v>
@@ -8734,13 +8320,13 @@
         <v>904</v>
       </c>
       <c r="C125" t="s">
-        <v>1371</v>
+        <v>1160</v>
       </c>
       <c r="D125" t="s">
-        <v>1371</v>
+        <v>1160</v>
       </c>
       <c r="F125" t="s">
-        <v>1629</v>
+        <v>1321</v>
       </c>
       <c r="G125" t="s">
         <v>588</v>
@@ -8754,13 +8340,13 @@
         <v>904</v>
       </c>
       <c r="C126" t="s">
-        <v>1874</v>
+        <v>1566</v>
       </c>
       <c r="D126" t="s">
-        <v>1182</v>
+        <v>1566</v>
       </c>
       <c r="F126" t="s">
-        <v>1583</v>
+        <v>1275</v>
       </c>
       <c r="G126" t="s">
         <v>516</v>
@@ -8774,13 +8360,13 @@
         <v>904</v>
       </c>
       <c r="C127" t="s">
-        <v>1897</v>
+        <v>1589</v>
       </c>
       <c r="D127" t="s">
-        <v>1166</v>
+        <v>1589</v>
       </c>
       <c r="F127" t="s">
-        <v>1634</v>
+        <v>1326</v>
       </c>
       <c r="G127" t="s">
         <v>311</v>
@@ -8794,13 +8380,13 @@
         <v>904</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>1390</v>
+        <v>1179</v>
       </c>
       <c r="D128" t="s">
-        <v>1390</v>
+        <v>1179</v>
       </c>
       <c r="F128" t="s">
-        <v>1584</v>
+        <v>1276</v>
       </c>
       <c r="G128" t="s">
         <v>302</v>
@@ -8814,13 +8400,13 @@
         <v>904</v>
       </c>
       <c r="C129" t="s">
-        <v>1829</v>
+        <v>1521</v>
       </c>
       <c r="D129" t="s">
-        <v>1028</v>
+        <v>1521</v>
       </c>
       <c r="F129" t="s">
-        <v>1631</v>
+        <v>1323</v>
       </c>
       <c r="G129" t="s">
         <v>359</v>
@@ -8834,13 +8420,13 @@
         <v>904</v>
       </c>
       <c r="C130" t="s">
-        <v>1845</v>
+        <v>1537</v>
       </c>
       <c r="D130" t="s">
-        <v>1214</v>
+        <v>1537</v>
       </c>
       <c r="F130" t="s">
-        <v>1638</v>
+        <v>1330</v>
       </c>
       <c r="G130" t="s">
         <v>231</v>
@@ -8854,13 +8440,13 @@
         <v>904</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>1746</v>
+        <v>1438</v>
       </c>
       <c r="D131" t="s">
-        <v>1270</v>
+        <v>1059</v>
       </c>
       <c r="F131" t="s">
-        <v>1707</v>
+        <v>1399</v>
       </c>
       <c r="G131" t="s">
         <v>752</v>
@@ -8874,13 +8460,13 @@
         <v>904</v>
       </c>
       <c r="C132" t="s">
-        <v>1934</v>
+        <v>1626</v>
       </c>
       <c r="D132" t="s">
-        <v>1262</v>
+        <v>1051</v>
       </c>
       <c r="F132" t="s">
-        <v>1639</v>
+        <v>1331</v>
       </c>
       <c r="G132" t="s">
         <v>318</v>
@@ -8894,13 +8480,13 @@
         <v>904</v>
       </c>
       <c r="C133" t="s">
-        <v>1375</v>
+        <v>1164</v>
       </c>
       <c r="D133" t="s">
-        <v>1375</v>
+        <v>1164</v>
       </c>
       <c r="F133" t="s">
-        <v>1627</v>
+        <v>1319</v>
       </c>
       <c r="G133" t="s">
         <v>526</v>
@@ -8914,13 +8500,13 @@
         <v>904</v>
       </c>
       <c r="C134" t="s">
-        <v>1401</v>
+        <v>1190</v>
       </c>
       <c r="D134" t="s">
-        <v>1401</v>
+        <v>1190</v>
       </c>
       <c r="F134" t="s">
-        <v>1688</v>
+        <v>1380</v>
       </c>
       <c r="G134" t="s">
         <v>900</v>
@@ -8934,13 +8520,13 @@
         <v>904</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1717</v>
+        <v>1409</v>
       </c>
       <c r="D135" t="s">
-        <v>1260</v>
+        <v>1049</v>
       </c>
       <c r="F135" t="s">
-        <v>1576</v>
+        <v>1268</v>
       </c>
       <c r="G135" t="s">
         <v>340</v>
@@ -8954,13 +8540,13 @@
         <v>904</v>
       </c>
       <c r="C136" t="s">
-        <v>1851</v>
+        <v>1543</v>
       </c>
       <c r="D136" t="s">
-        <v>1221</v>
+        <v>1010</v>
       </c>
       <c r="F136" t="s">
-        <v>1673</v>
+        <v>1365</v>
       </c>
       <c r="G136" t="s">
         <v>130</v>
@@ -8974,13 +8560,13 @@
         <v>904</v>
       </c>
       <c r="C137" t="s">
-        <v>1866</v>
+        <v>1558</v>
       </c>
       <c r="D137" t="s">
-        <v>1111</v>
+        <v>1558</v>
       </c>
       <c r="F137" t="s">
-        <v>1665</v>
+        <v>1357</v>
       </c>
       <c r="G137" t="s">
         <v>457</v>
@@ -8994,13 +8580,13 @@
         <v>904</v>
       </c>
       <c r="C138" t="s">
-        <v>1105</v>
+        <v>1653</v>
       </c>
       <c r="D138" t="s">
-        <v>1105</v>
+        <v>1653</v>
       </c>
       <c r="F138" t="s">
-        <v>1674</v>
+        <v>1366</v>
       </c>
       <c r="G138" t="s">
         <v>862</v>
@@ -9014,13 +8600,13 @@
         <v>904</v>
       </c>
       <c r="C139" t="s">
-        <v>1910</v>
+        <v>1602</v>
       </c>
       <c r="D139" t="s">
-        <v>1150</v>
+        <v>1602</v>
       </c>
       <c r="F139" t="s">
-        <v>1703</v>
+        <v>1395</v>
       </c>
       <c r="G139" t="s">
         <v>103</v>
@@ -9034,13 +8620,13 @@
         <v>904</v>
       </c>
       <c r="C140" t="s">
-        <v>1879</v>
+        <v>1571</v>
       </c>
       <c r="D140" t="s">
-        <v>1185</v>
+        <v>1571</v>
       </c>
       <c r="F140" t="s">
-        <v>1646</v>
+        <v>1338</v>
       </c>
       <c r="G140" t="s">
         <v>510</v>
@@ -9054,13 +8640,13 @@
         <v>904</v>
       </c>
       <c r="C141" t="s">
-        <v>1467</v>
+        <v>1256</v>
       </c>
       <c r="D141" t="s">
-        <v>1467</v>
+        <v>1256</v>
       </c>
       <c r="F141" t="s">
-        <v>1599</v>
+        <v>1291</v>
       </c>
       <c r="G141" t="s">
         <v>285</v>
@@ -9074,13 +8660,13 @@
         <v>904</v>
       </c>
       <c r="C142" t="s">
-        <v>1891</v>
+        <v>1583</v>
       </c>
       <c r="D142" t="s">
-        <v>1248</v>
+        <v>1037</v>
       </c>
       <c r="F142" t="s">
-        <v>1587</v>
+        <v>1279</v>
       </c>
       <c r="G142" t="s">
         <v>334</v>
@@ -9094,13 +8680,13 @@
         <v>904</v>
       </c>
       <c r="C143" t="s">
-        <v>1420</v>
+        <v>1209</v>
       </c>
       <c r="D143" t="s">
-        <v>1420</v>
+        <v>1209</v>
       </c>
       <c r="F143" t="s">
-        <v>1591</v>
+        <v>1283</v>
       </c>
       <c r="G143" t="s">
         <v>425</v>
@@ -9114,13 +8700,13 @@
         <v>904</v>
       </c>
       <c r="C144" t="s">
-        <v>1771</v>
+        <v>1463</v>
       </c>
       <c r="D144" t="s">
-        <v>1284</v>
+        <v>1073</v>
       </c>
       <c r="F144" t="s">
-        <v>1602</v>
+        <v>1294</v>
       </c>
       <c r="G144" t="s">
         <v>836</v>
@@ -9134,13 +8720,13 @@
         <v>904</v>
       </c>
       <c r="C145" t="s">
-        <v>1345</v>
+        <v>1134</v>
       </c>
       <c r="D145" t="s">
-        <v>1345</v>
+        <v>1134</v>
       </c>
       <c r="F145" t="s">
-        <v>1619</v>
+        <v>1311</v>
       </c>
       <c r="G145" t="s">
         <v>712</v>
@@ -9154,13 +8740,13 @@
         <v>904</v>
       </c>
       <c r="C146" t="s">
-        <v>1394</v>
+        <v>1183</v>
       </c>
       <c r="D146" t="s">
-        <v>1394</v>
+        <v>1183</v>
       </c>
       <c r="F146" t="s">
-        <v>1636</v>
+        <v>1328</v>
       </c>
       <c r="G146" t="s">
         <v>855</v>
@@ -9174,13 +8760,13 @@
         <v>904</v>
       </c>
       <c r="C147" t="s">
-        <v>1744</v>
+        <v>1436</v>
       </c>
       <c r="D147" t="s">
-        <v>1280</v>
+        <v>1069</v>
       </c>
       <c r="F147" t="s">
-        <v>1656</v>
+        <v>1348</v>
       </c>
       <c r="G147" t="s">
         <v>455</v>
@@ -9194,13 +8780,13 @@
         <v>904</v>
       </c>
       <c r="C148" t="s">
-        <v>1466</v>
+        <v>1255</v>
       </c>
       <c r="D148" t="s">
-        <v>1466</v>
+        <v>1255</v>
       </c>
       <c r="F148" t="s">
-        <v>1632</v>
+        <v>1324</v>
       </c>
       <c r="G148" t="s">
         <v>324</v>
@@ -9214,13 +8800,13 @@
         <v>904</v>
       </c>
       <c r="C149" t="s">
-        <v>1819</v>
+        <v>1511</v>
       </c>
       <c r="D149" t="s">
-        <v>1039</v>
+        <v>1511</v>
       </c>
       <c r="F149" t="s">
-        <v>1510</v>
+        <v>1654</v>
       </c>
       <c r="G149" t="s">
         <v>696</v>
@@ -9234,13 +8820,13 @@
         <v>904</v>
       </c>
       <c r="C150" t="s">
-        <v>1462</v>
+        <v>1251</v>
       </c>
       <c r="D150" t="s">
-        <v>1462</v>
+        <v>1251</v>
       </c>
       <c r="F150" t="s">
-        <v>1511</v>
+        <v>1655</v>
       </c>
       <c r="G150" t="s">
         <v>749</v>
@@ -9254,13 +8840,13 @@
         <v>904</v>
       </c>
       <c r="C151" t="s">
-        <v>1857</v>
+        <v>1549</v>
       </c>
       <c r="D151" t="s">
-        <v>1086</v>
+        <v>1549</v>
       </c>
       <c r="F151" t="s">
-        <v>1513</v>
+        <v>1656</v>
       </c>
       <c r="G151" t="s">
         <v>188</v>
@@ -9274,13 +8860,13 @@
         <v>904</v>
       </c>
       <c r="C152" t="s">
-        <v>1914</v>
+        <v>1606</v>
       </c>
       <c r="D152" t="s">
-        <v>1077</v>
+        <v>1606</v>
       </c>
       <c r="F152" t="s">
-        <v>1512</v>
+        <v>1657</v>
       </c>
       <c r="G152" t="s">
         <v>101</v>
@@ -9300,7 +8886,7 @@
         <v>970</v>
       </c>
       <c r="F153" t="s">
-        <v>1472</v>
+        <v>1658</v>
       </c>
       <c r="G153" t="s">
         <v>492</v>
@@ -9314,13 +8900,13 @@
         <v>904</v>
       </c>
       <c r="C154" t="s">
-        <v>1800</v>
+        <v>1492</v>
       </c>
       <c r="D154" t="s">
-        <v>1036</v>
+        <v>1492</v>
       </c>
       <c r="F154" t="s">
-        <v>1558</v>
+        <v>1659</v>
       </c>
       <c r="G154" t="s">
         <v>33</v>
@@ -9334,13 +8920,13 @@
         <v>904</v>
       </c>
       <c r="C155" t="s">
-        <v>1741</v>
+        <v>1433</v>
       </c>
       <c r="D155" t="s">
-        <v>1237</v>
+        <v>1026</v>
       </c>
       <c r="F155" t="s">
-        <v>1568</v>
+        <v>1660</v>
       </c>
       <c r="G155" t="s">
         <v>870</v>
@@ -9354,13 +8940,13 @@
         <v>904</v>
       </c>
       <c r="C156" t="s">
-        <v>1725</v>
+        <v>1417</v>
       </c>
       <c r="D156" t="s">
-        <v>1240</v>
+        <v>1029</v>
       </c>
       <c r="F156" t="s">
-        <v>1515</v>
+        <v>1661</v>
       </c>
       <c r="G156" t="s">
         <v>757</v>
@@ -9374,13 +8960,13 @@
         <v>904</v>
       </c>
       <c r="C157" t="s">
-        <v>1841</v>
+        <v>1533</v>
       </c>
       <c r="D157" t="s">
-        <v>1047</v>
+        <v>1533</v>
       </c>
       <c r="F157" t="s">
-        <v>1538</v>
+        <v>1662</v>
       </c>
       <c r="G157" t="s">
         <v>489</v>
@@ -9394,13 +8980,13 @@
         <v>904</v>
       </c>
       <c r="C158" t="s">
-        <v>1373</v>
+        <v>1162</v>
       </c>
       <c r="D158" t="s">
-        <v>1373</v>
+        <v>1162</v>
       </c>
       <c r="F158" t="s">
-        <v>1559</v>
+        <v>1663</v>
       </c>
       <c r="G158" t="s">
         <v>848</v>
@@ -9414,13 +9000,13 @@
         <v>904</v>
       </c>
       <c r="C159" t="s">
-        <v>1019</v>
+        <v>1664</v>
       </c>
       <c r="D159" t="s">
-        <v>1019</v>
+        <v>1664</v>
       </c>
       <c r="F159" t="s">
-        <v>1483</v>
+        <v>1665</v>
       </c>
       <c r="G159" t="s">
         <v>67</v>
@@ -9434,13 +9020,13 @@
         <v>904</v>
       </c>
       <c r="C160" t="s">
-        <v>1427</v>
+        <v>1216</v>
       </c>
       <c r="D160" t="s">
-        <v>1427</v>
+        <v>1216</v>
       </c>
       <c r="F160" t="s">
-        <v>1544</v>
+        <v>1666</v>
       </c>
       <c r="G160" t="s">
         <v>592</v>
@@ -9460,7 +9046,7 @@
         <v>948</v>
       </c>
       <c r="F161" t="s">
-        <v>1482</v>
+        <v>1667</v>
       </c>
       <c r="G161" t="s">
         <v>741</v>
@@ -9480,7 +9066,7 @@
         <v>815</v>
       </c>
       <c r="F162" t="s">
-        <v>1560</v>
+        <v>1668</v>
       </c>
       <c r="G162" t="s">
         <v>816</v>
@@ -9494,13 +9080,13 @@
         <v>904</v>
       </c>
       <c r="C163" t="s">
-        <v>1929</v>
+        <v>1621</v>
       </c>
       <c r="D163" t="s">
-        <v>1264</v>
+        <v>1053</v>
       </c>
       <c r="F163" t="s">
-        <v>1567</v>
+        <v>1669</v>
       </c>
       <c r="G163" t="s">
         <v>636</v>
@@ -9514,13 +9100,13 @@
         <v>904</v>
       </c>
       <c r="C164" t="s">
-        <v>1801</v>
+        <v>1493</v>
       </c>
       <c r="D164" t="s">
-        <v>1180</v>
+        <v>1670</v>
       </c>
       <c r="F164" t="s">
-        <v>1563</v>
+        <v>1671</v>
       </c>
       <c r="G164" t="s">
         <v>73</v>
@@ -9534,13 +9120,13 @@
         <v>904</v>
       </c>
       <c r="C165" t="s">
-        <v>1906</v>
+        <v>1598</v>
       </c>
       <c r="D165" t="s">
-        <v>1141</v>
+        <v>1598</v>
       </c>
       <c r="F165" t="s">
-        <v>1566</v>
+        <v>1672</v>
       </c>
       <c r="G165" t="s">
         <v>571</v>
@@ -9554,13 +9140,13 @@
         <v>904</v>
       </c>
       <c r="C166" t="s">
-        <v>1468</v>
+        <v>1257</v>
       </c>
       <c r="D166" t="s">
-        <v>1468</v>
+        <v>1257</v>
       </c>
       <c r="F166" t="s">
-        <v>1550</v>
+        <v>1673</v>
       </c>
       <c r="G166" t="s">
         <v>559</v>
@@ -9580,7 +9166,7 @@
         <v>923</v>
       </c>
       <c r="F167" t="s">
-        <v>1500</v>
+        <v>1674</v>
       </c>
       <c r="G167" t="s">
         <v>247</v>
@@ -9600,7 +9186,7 @@
         <v>946</v>
       </c>
       <c r="F168" t="s">
-        <v>1499</v>
+        <v>1675</v>
       </c>
       <c r="G168" t="s">
         <v>640</v>
@@ -9620,7 +9206,7 @@
         <v>990</v>
       </c>
       <c r="F169" t="s">
-        <v>1476</v>
+        <v>1676</v>
       </c>
       <c r="G169" t="s">
         <v>875</v>
@@ -9634,13 +9220,13 @@
         <v>904</v>
       </c>
       <c r="C170" t="s">
-        <v>1886</v>
+        <v>1578</v>
       </c>
       <c r="D170" t="s">
-        <v>1057</v>
+        <v>1578</v>
       </c>
       <c r="F170" t="s">
-        <v>1497</v>
+        <v>1677</v>
       </c>
       <c r="G170" t="s">
         <v>732</v>
@@ -9660,7 +9246,7 @@
         <v>920</v>
       </c>
       <c r="F171" t="s">
-        <v>1488</v>
+        <v>1678</v>
       </c>
       <c r="G171" t="s">
         <v>808</v>
@@ -9674,13 +9260,13 @@
         <v>904</v>
       </c>
       <c r="C172" t="s">
-        <v>1408</v>
+        <v>1197</v>
       </c>
       <c r="D172" t="s">
-        <v>1408</v>
+        <v>1197</v>
       </c>
       <c r="F172" t="s">
-        <v>1546</v>
+        <v>1679</v>
       </c>
       <c r="G172" t="s">
         <v>299</v>
@@ -9694,13 +9280,13 @@
         <v>904</v>
       </c>
       <c r="C173" t="s">
-        <v>1837</v>
+        <v>1529</v>
       </c>
       <c r="D173" t="s">
-        <v>1279</v>
+        <v>1068</v>
       </c>
       <c r="F173" t="s">
-        <v>1561</v>
+        <v>1680</v>
       </c>
       <c r="G173" t="s">
         <v>496</v>
@@ -9714,13 +9300,13 @@
         <v>904</v>
       </c>
       <c r="C174" t="s">
-        <v>1730</v>
+        <v>1422</v>
       </c>
       <c r="D174" t="s">
-        <v>1309</v>
+        <v>1098</v>
       </c>
       <c r="F174" t="s">
-        <v>1539</v>
+        <v>1681</v>
       </c>
       <c r="G174" t="s">
         <v>380</v>
@@ -9734,13 +9320,13 @@
         <v>904</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>1756</v>
+        <v>1448</v>
       </c>
       <c r="D175" t="s">
-        <v>1031</v>
+        <v>1448</v>
       </c>
       <c r="F175" t="s">
-        <v>1491</v>
+        <v>1682</v>
       </c>
       <c r="G175" t="s">
         <v>662</v>
@@ -9760,7 +9346,7 @@
         <v>938</v>
       </c>
       <c r="F176" t="s">
-        <v>1495</v>
+        <v>1683</v>
       </c>
       <c r="G176" t="s">
         <v>707</v>
@@ -9774,13 +9360,13 @@
         <v>904</v>
       </c>
       <c r="C177" t="s">
-        <v>1911</v>
+        <v>1603</v>
       </c>
       <c r="D177" t="s">
-        <v>1066</v>
+        <v>1603</v>
       </c>
       <c r="F177" t="s">
-        <v>1498</v>
+        <v>1684</v>
       </c>
       <c r="G177" t="s">
         <v>410</v>
@@ -9794,13 +9380,13 @@
         <v>904</v>
       </c>
       <c r="C178" t="s">
-        <v>1333</v>
+        <v>1122</v>
       </c>
       <c r="D178" t="s">
-        <v>1333</v>
+        <v>1122</v>
       </c>
       <c r="F178" t="s">
-        <v>1562</v>
+        <v>1685</v>
       </c>
       <c r="G178" t="s">
         <v>730</v>
@@ -9820,7 +9406,7 @@
         <v>982</v>
       </c>
       <c r="F179" t="s">
-        <v>1479</v>
+        <v>1686</v>
       </c>
       <c r="G179" t="s">
         <v>30</v>
@@ -9834,13 +9420,13 @@
         <v>904</v>
       </c>
       <c r="C180" t="s">
-        <v>1916</v>
+        <v>1608</v>
       </c>
       <c r="D180" t="s">
-        <v>1084</v>
+        <v>1608</v>
       </c>
       <c r="F180" t="s">
-        <v>1557</v>
+        <v>1687</v>
       </c>
       <c r="G180" t="s">
         <v>369</v>
@@ -9854,13 +9440,13 @@
         <v>904</v>
       </c>
       <c r="C181" t="s">
-        <v>1454</v>
+        <v>1243</v>
       </c>
       <c r="D181" t="s">
-        <v>1454</v>
+        <v>1243</v>
       </c>
       <c r="F181" t="s">
-        <v>1554</v>
+        <v>1688</v>
       </c>
       <c r="G181" t="s">
         <v>280</v>
@@ -9874,13 +9460,13 @@
         <v>904</v>
       </c>
       <c r="C182" t="s">
-        <v>1762</v>
+        <v>1454</v>
       </c>
       <c r="D182" t="s">
-        <v>1199</v>
+        <v>1454</v>
       </c>
       <c r="F182" t="s">
-        <v>1547</v>
+        <v>1689</v>
       </c>
       <c r="G182" t="s">
         <v>715</v>
@@ -9900,7 +9486,7 @@
         <v>932</v>
       </c>
       <c r="F183" t="s">
-        <v>1490</v>
+        <v>1690</v>
       </c>
       <c r="G183" t="s">
         <v>642</v>
@@ -9920,7 +9506,7 @@
         <v>994</v>
       </c>
       <c r="F184" t="s">
-        <v>1484</v>
+        <v>1691</v>
       </c>
       <c r="G184" t="s">
         <v>55</v>
@@ -9934,13 +9520,13 @@
         <v>904</v>
       </c>
       <c r="C185" t="s">
-        <v>1828</v>
+        <v>1520</v>
       </c>
       <c r="D185" t="s">
-        <v>1042</v>
+        <v>1520</v>
       </c>
       <c r="F185" t="s">
-        <v>1478</v>
+        <v>1692</v>
       </c>
       <c r="G185" t="s">
         <v>186</v>
@@ -9954,13 +9540,13 @@
         <v>904</v>
       </c>
       <c r="C186" t="s">
-        <v>1153</v>
+        <v>1693</v>
       </c>
       <c r="D186" t="s">
-        <v>1153</v>
+        <v>1693</v>
       </c>
       <c r="F186" t="s">
-        <v>1552</v>
+        <v>1694</v>
       </c>
       <c r="G186" t="s">
         <v>477</v>
@@ -9974,13 +9560,13 @@
         <v>904</v>
       </c>
       <c r="C187" t="s">
-        <v>1008</v>
+        <v>1695</v>
       </c>
       <c r="D187" t="s">
-        <v>1008</v>
+        <v>1695</v>
       </c>
       <c r="F187" t="s">
-        <v>1565</v>
+        <v>1696</v>
       </c>
       <c r="G187" t="s">
         <v>469</v>
@@ -9994,13 +9580,13 @@
         <v>904</v>
       </c>
       <c r="C188" t="s">
-        <v>1918</v>
+        <v>1610</v>
       </c>
       <c r="D188" t="s">
-        <v>1256</v>
+        <v>1045</v>
       </c>
       <c r="F188" t="s">
-        <v>1535</v>
+        <v>1697</v>
       </c>
       <c r="G188" t="s">
         <v>550</v>
@@ -10014,13 +9600,13 @@
         <v>904</v>
       </c>
       <c r="C189" t="s">
-        <v>1876</v>
+        <v>1568</v>
       </c>
       <c r="D189" t="s">
-        <v>1160</v>
+        <v>1568</v>
       </c>
       <c r="F189" t="s">
-        <v>1536</v>
+        <v>1698</v>
       </c>
       <c r="G189" t="s">
         <v>594</v>
@@ -10034,13 +9620,13 @@
         <v>904</v>
       </c>
       <c r="C190" t="s">
-        <v>1785</v>
+        <v>1477</v>
       </c>
       <c r="D190" t="s">
-        <v>1278</v>
+        <v>1067</v>
       </c>
       <c r="F190" t="s">
-        <v>1534</v>
+        <v>1699</v>
       </c>
       <c r="G190" t="s">
         <v>487</v>
@@ -10054,13 +9640,13 @@
         <v>904</v>
       </c>
       <c r="C191" t="s">
-        <v>1457</v>
+        <v>1246</v>
       </c>
       <c r="D191" t="s">
-        <v>1457</v>
+        <v>1246</v>
       </c>
       <c r="F191" t="s">
-        <v>1514</v>
+        <v>1700</v>
       </c>
       <c r="G191" t="s">
         <v>38</v>
@@ -10074,13 +9660,13 @@
         <v>904</v>
       </c>
       <c r="C192" t="s">
-        <v>1765</v>
+        <v>1457</v>
       </c>
       <c r="D192" t="s">
-        <v>1123</v>
+        <v>1457</v>
       </c>
       <c r="F192" t="s">
-        <v>1531</v>
+        <v>1701</v>
       </c>
       <c r="G192" t="s">
         <v>610</v>
@@ -10094,13 +9680,13 @@
         <v>904</v>
       </c>
       <c r="C193" t="s">
-        <v>1743</v>
+        <v>1435</v>
       </c>
       <c r="D193" t="s">
-        <v>1259</v>
+        <v>1048</v>
       </c>
       <c r="F193" t="s">
-        <v>1939</v>
+        <v>1702</v>
       </c>
       <c r="G193" t="s">
         <v>582</v>
@@ -10120,7 +9706,7 @@
         <v>916</v>
       </c>
       <c r="F194" t="s">
-        <v>1492</v>
+        <v>1703</v>
       </c>
       <c r="G194" t="s">
         <v>315</v>
@@ -10140,7 +9726,7 @@
         <v>992</v>
       </c>
       <c r="F195" t="s">
-        <v>1493</v>
+        <v>1704</v>
       </c>
       <c r="G195" t="s">
         <v>201</v>
@@ -10154,13 +9740,13 @@
         <v>904</v>
       </c>
       <c r="C196" t="s">
-        <v>1383</v>
+        <v>1172</v>
       </c>
       <c r="D196" t="s">
-        <v>1383</v>
+        <v>1172</v>
       </c>
       <c r="F196" t="s">
-        <v>1551</v>
+        <v>1705</v>
       </c>
       <c r="G196" t="s">
         <v>403</v>
@@ -10174,13 +9760,13 @@
         <v>904</v>
       </c>
       <c r="C197" t="s">
-        <v>1178</v>
+        <v>1706</v>
       </c>
       <c r="D197" t="s">
-        <v>1178</v>
+        <v>1706</v>
       </c>
       <c r="F197" t="s">
-        <v>1564</v>
+        <v>1707</v>
       </c>
       <c r="G197" t="s">
         <v>422</v>
@@ -10194,13 +9780,13 @@
         <v>904</v>
       </c>
       <c r="C198" t="s">
-        <v>1335</v>
+        <v>1124</v>
       </c>
       <c r="D198" t="s">
-        <v>1335</v>
+        <v>1124</v>
       </c>
       <c r="F198" t="s">
-        <v>1549</v>
+        <v>1708</v>
       </c>
       <c r="G198" t="s">
         <v>755</v>
@@ -10220,7 +9806,7 @@
         <v>966</v>
       </c>
       <c r="F199" t="s">
-        <v>1496</v>
+        <v>1709</v>
       </c>
       <c r="G199" t="s">
         <v>337</v>
@@ -10234,13 +9820,13 @@
         <v>904</v>
       </c>
       <c r="C200" t="s">
-        <v>1352</v>
+        <v>1141</v>
       </c>
       <c r="D200" t="s">
-        <v>1352</v>
+        <v>1141</v>
       </c>
       <c r="F200" t="s">
-        <v>1521</v>
+        <v>1710</v>
       </c>
       <c r="G200" t="s">
         <v>62</v>
@@ -10254,13 +9840,13 @@
         <v>904</v>
       </c>
       <c r="C201" t="s">
-        <v>1388</v>
+        <v>1177</v>
       </c>
       <c r="D201" t="s">
-        <v>1388</v>
+        <v>1177</v>
       </c>
       <c r="F201" t="s">
-        <v>1522</v>
+        <v>1711</v>
       </c>
       <c r="G201" t="s">
         <v>351</v>
@@ -10274,13 +9860,13 @@
         <v>904</v>
       </c>
       <c r="C202" t="s">
-        <v>1464</v>
+        <v>1253</v>
       </c>
       <c r="D202" t="s">
-        <v>1464</v>
+        <v>1253</v>
       </c>
       <c r="F202" t="s">
-        <v>1525</v>
+        <v>1712</v>
       </c>
       <c r="G202" t="s">
         <v>829</v>
@@ -10294,13 +9880,13 @@
         <v>904</v>
       </c>
       <c r="C203" t="s">
-        <v>1409</v>
+        <v>1198</v>
       </c>
       <c r="D203" t="s">
-        <v>1409</v>
+        <v>1198</v>
       </c>
       <c r="F203" t="s">
-        <v>1545</v>
+        <v>1713</v>
       </c>
       <c r="G203" t="s">
         <v>433</v>
@@ -10320,7 +9906,7 @@
         <v>929</v>
       </c>
       <c r="F204" t="s">
-        <v>1501</v>
+        <v>1714</v>
       </c>
       <c r="G204" t="s">
         <v>767</v>
@@ -10334,13 +9920,13 @@
         <v>904</v>
       </c>
       <c r="C205" t="s">
-        <v>1353</v>
+        <v>1142</v>
       </c>
       <c r="D205" t="s">
-        <v>1353</v>
+        <v>1142</v>
       </c>
       <c r="F205" t="s">
-        <v>1527</v>
+        <v>1715</v>
       </c>
       <c r="G205" t="s">
         <v>384</v>
@@ -10354,13 +9940,13 @@
         <v>904</v>
       </c>
       <c r="C206" t="s">
-        <v>1320</v>
+        <v>1109</v>
       </c>
       <c r="D206" t="s">
-        <v>1320</v>
+        <v>1109</v>
       </c>
       <c r="F206" t="s">
-        <v>1524</v>
+        <v>1716</v>
       </c>
       <c r="G206" t="s">
         <v>140</v>
@@ -10374,13 +9960,13 @@
         <v>904</v>
       </c>
       <c r="C207" t="s">
-        <v>1938</v>
+        <v>1630</v>
       </c>
       <c r="D207" t="s">
-        <v>1230</v>
+        <v>1019</v>
       </c>
       <c r="F207" t="s">
-        <v>1526</v>
+        <v>1717</v>
       </c>
       <c r="G207" t="s">
         <v>823</v>
@@ -10400,7 +9986,7 @@
         <v>935</v>
       </c>
       <c r="F208" t="s">
-        <v>1486</v>
+        <v>1718</v>
       </c>
       <c r="G208" t="s">
         <v>783</v>
@@ -10414,13 +10000,13 @@
         <v>904</v>
       </c>
       <c r="C209" t="s">
-        <v>1807</v>
+        <v>1499</v>
       </c>
       <c r="D209" t="s">
-        <v>1282</v>
+        <v>1071</v>
       </c>
       <c r="F209" t="s">
-        <v>1523</v>
+        <v>1719</v>
       </c>
       <c r="G209" t="s">
         <v>790</v>
@@ -10434,13 +10020,13 @@
         <v>904</v>
       </c>
       <c r="C210" t="s">
-        <v>1455</v>
+        <v>1244</v>
       </c>
       <c r="D210" t="s">
-        <v>1455</v>
+        <v>1244</v>
       </c>
       <c r="F210" t="s">
-        <v>1509</v>
+        <v>1720</v>
       </c>
       <c r="G210" t="s">
         <v>727</v>
@@ -10454,13 +10040,13 @@
         <v>904</v>
       </c>
       <c r="C211" t="s">
-        <v>1316</v>
+        <v>1105</v>
       </c>
       <c r="D211" t="s">
-        <v>1316</v>
+        <v>1105</v>
       </c>
       <c r="F211" t="s">
-        <v>1548</v>
+        <v>1721</v>
       </c>
       <c r="G211" t="s">
         <v>96</v>
@@ -10474,13 +10060,13 @@
         <v>904</v>
       </c>
       <c r="C212" t="s">
-        <v>1405</v>
+        <v>1194</v>
       </c>
       <c r="D212" t="s">
-        <v>1405</v>
+        <v>1194</v>
       </c>
       <c r="F212" t="s">
-        <v>1533</v>
+        <v>1722</v>
       </c>
       <c r="G212" t="s">
         <v>362</v>
@@ -10494,13 +10080,13 @@
         <v>904</v>
       </c>
       <c r="C213" t="s">
-        <v>1813</v>
+        <v>1505</v>
       </c>
       <c r="D213" t="s">
-        <v>1103</v>
+        <v>1505</v>
       </c>
       <c r="F213" t="s">
-        <v>1540</v>
+        <v>1723</v>
       </c>
       <c r="G213" t="s">
         <v>619</v>
@@ -10514,13 +10100,13 @@
         <v>904</v>
       </c>
       <c r="C214" t="s">
-        <v>1435</v>
+        <v>1224</v>
       </c>
       <c r="D214" t="s">
-        <v>1435</v>
+        <v>1224</v>
       </c>
       <c r="F214" t="s">
-        <v>1537</v>
+        <v>1724</v>
       </c>
       <c r="G214" t="s">
         <v>176</v>
@@ -10540,7 +10126,7 @@
         <v>921</v>
       </c>
       <c r="F215" t="s">
-        <v>1504</v>
+        <v>1725</v>
       </c>
       <c r="G215" t="s">
         <v>745</v>
@@ -10560,7 +10146,7 @@
         <v>944</v>
       </c>
       <c r="F216" t="s">
-        <v>1480</v>
+        <v>1726</v>
       </c>
       <c r="G216" t="s">
         <v>117</v>
@@ -10574,13 +10160,13 @@
         <v>904</v>
       </c>
       <c r="C217" t="s">
-        <v>1360</v>
+        <v>1149</v>
       </c>
       <c r="D217" t="s">
-        <v>1360</v>
+        <v>1149</v>
       </c>
       <c r="F217" t="s">
-        <v>1569</v>
+        <v>1261</v>
       </c>
       <c r="G217" t="s">
         <v>622</v>
@@ -10594,13 +10180,13 @@
         <v>904</v>
       </c>
       <c r="C218" t="s">
-        <v>1083</v>
+        <v>1727</v>
       </c>
       <c r="D218" t="s">
-        <v>1083</v>
+        <v>1727</v>
       </c>
       <c r="F218" t="s">
-        <v>1529</v>
+        <v>1728</v>
       </c>
       <c r="G218" t="s">
         <v>648</v>
@@ -10614,13 +10200,13 @@
         <v>904</v>
       </c>
       <c r="C219" t="s">
-        <v>1085</v>
+        <v>1729</v>
       </c>
       <c r="D219" t="s">
-        <v>1085</v>
+        <v>1729</v>
       </c>
       <c r="F219" t="s">
-        <v>1530</v>
+        <v>1730</v>
       </c>
       <c r="G219" t="s">
         <v>372</v>
@@ -10634,13 +10220,13 @@
         <v>904</v>
       </c>
       <c r="C220" t="s">
-        <v>1342</v>
+        <v>1131</v>
       </c>
       <c r="D220" t="s">
-        <v>1342</v>
+        <v>1131</v>
       </c>
       <c r="F220" t="s">
-        <v>1516</v>
+        <v>1731</v>
       </c>
       <c r="G220" t="s">
         <v>569</v>
@@ -10660,7 +10246,7 @@
         <v>995</v>
       </c>
       <c r="F221" t="s">
-        <v>1494</v>
+        <v>1732</v>
       </c>
       <c r="G221" t="s">
         <v>435</v>
@@ -10674,13 +10260,13 @@
         <v>904</v>
       </c>
       <c r="C222" t="s">
-        <v>1919</v>
+        <v>1611</v>
       </c>
       <c r="D222" t="s">
-        <v>1063</v>
+        <v>1611</v>
       </c>
       <c r="F222" t="s">
-        <v>1475</v>
+        <v>1733</v>
       </c>
       <c r="G222" t="s">
         <v>136</v>
@@ -10700,7 +10286,7 @@
         <v>1000</v>
       </c>
       <c r="F223" t="s">
-        <v>1507</v>
+        <v>1734</v>
       </c>
       <c r="G223" t="s">
         <v>171</v>
@@ -10714,13 +10300,13 @@
         <v>904</v>
       </c>
       <c r="C224" t="s">
-        <v>1072</v>
+        <v>1735</v>
       </c>
       <c r="D224" t="s">
-        <v>1072</v>
+        <v>1735</v>
       </c>
       <c r="F224" t="s">
-        <v>1555</v>
+        <v>1736</v>
       </c>
       <c r="G224" t="s">
         <v>196</v>
@@ -10734,13 +10320,13 @@
         <v>904</v>
       </c>
       <c r="C225" t="s">
-        <v>1283</v>
+        <v>1072</v>
       </c>
       <c r="D225" t="s">
-        <v>1283</v>
+        <v>1072</v>
       </c>
       <c r="F225" t="s">
-        <v>1556</v>
+        <v>1737</v>
       </c>
       <c r="G225" t="s">
         <v>534</v>
@@ -10760,7 +10346,7 @@
         <v>914</v>
       </c>
       <c r="F226" t="s">
-        <v>1487</v>
+        <v>1738</v>
       </c>
       <c r="G226" t="s">
         <v>722</v>
@@ -10774,13 +10360,13 @@
         <v>904</v>
       </c>
       <c r="C227" t="s">
-        <v>1926</v>
+        <v>1618</v>
       </c>
       <c r="D227" t="s">
-        <v>1015</v>
+        <v>1618</v>
       </c>
       <c r="F227" t="s">
-        <v>1473</v>
+        <v>1739</v>
       </c>
       <c r="G227" t="s">
         <v>466</v>
@@ -10800,7 +10386,7 @@
         <v>937</v>
       </c>
       <c r="F228" t="s">
-        <v>1502</v>
+        <v>1740</v>
       </c>
       <c r="G228" t="s">
         <v>873</v>
@@ -10814,13 +10400,13 @@
         <v>904</v>
       </c>
       <c r="C229" t="s">
-        <v>1927</v>
+        <v>1619</v>
       </c>
       <c r="D229" t="s">
-        <v>1014</v>
+        <v>1619</v>
       </c>
       <c r="F229" t="s">
-        <v>1517</v>
+        <v>1741</v>
       </c>
       <c r="G229" t="s">
         <v>481</v>
@@ -10840,7 +10426,7 @@
         <v>987</v>
       </c>
       <c r="F230" t="s">
-        <v>1481</v>
+        <v>1742</v>
       </c>
       <c r="G230" t="s">
         <v>802</v>
@@ -10854,13 +10440,13 @@
         <v>904</v>
       </c>
       <c r="C231" t="s">
-        <v>1324</v>
+        <v>1113</v>
       </c>
       <c r="D231" t="s">
-        <v>1324</v>
+        <v>1113</v>
       </c>
       <c r="F231" t="s">
-        <v>1520</v>
+        <v>1743</v>
       </c>
       <c r="G231" t="s">
         <v>843</v>
@@ -10874,13 +10460,13 @@
         <v>904</v>
       </c>
       <c r="C232" t="s">
-        <v>1318</v>
+        <v>1107</v>
       </c>
       <c r="D232" t="s">
-        <v>1318</v>
+        <v>1107</v>
       </c>
       <c r="F232" t="s">
-        <v>1543</v>
+        <v>1744</v>
       </c>
       <c r="G232" t="s">
         <v>89</v>
@@ -10894,13 +10480,13 @@
         <v>904</v>
       </c>
       <c r="C233" t="s">
-        <v>1234</v>
+        <v>1023</v>
       </c>
       <c r="D233" t="s">
-        <v>1234</v>
+        <v>1023</v>
       </c>
       <c r="F233" t="s">
-        <v>1528</v>
+        <v>1745</v>
       </c>
       <c r="G233" t="s">
         <v>309</v>
@@ -10914,13 +10500,13 @@
         <v>904</v>
       </c>
       <c r="C234" t="s">
-        <v>1020</v>
+        <v>1746</v>
       </c>
       <c r="D234" t="s">
-        <v>1020</v>
+        <v>1746</v>
       </c>
       <c r="F234" t="s">
-        <v>1477</v>
+        <v>1747</v>
       </c>
       <c r="G234" t="s">
         <v>775</v>
@@ -10940,7 +10526,7 @@
         <v>983</v>
       </c>
       <c r="F235" t="s">
-        <v>1503</v>
+        <v>1748</v>
       </c>
       <c r="G235" t="s">
         <v>183</v>
@@ -10954,13 +10540,13 @@
         <v>904</v>
       </c>
       <c r="C236" t="s">
-        <v>1713</v>
+        <v>1405</v>
       </c>
       <c r="D236" t="s">
-        <v>1219</v>
+        <v>1008</v>
       </c>
       <c r="F236" t="s">
-        <v>1518</v>
+        <v>1749</v>
       </c>
       <c r="G236" t="s">
         <v>452</v>
@@ -10974,13 +10560,13 @@
         <v>904</v>
       </c>
       <c r="C237" t="s">
-        <v>1220</v>
+        <v>1009</v>
       </c>
       <c r="D237" t="s">
-        <v>1220</v>
+        <v>1009</v>
       </c>
       <c r="F237" t="s">
-        <v>1519</v>
+        <v>1750</v>
       </c>
       <c r="G237" t="s">
         <v>519</v>
@@ -10994,13 +10580,13 @@
         <v>904</v>
       </c>
       <c r="C238" t="s">
-        <v>1120</v>
+        <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>1120</v>
+        <v>1751</v>
       </c>
       <c r="F238" t="s">
-        <v>1553</v>
+        <v>1752</v>
       </c>
       <c r="G238" t="s">
         <v>76</v>
@@ -11014,13 +10600,13 @@
         <v>904</v>
       </c>
       <c r="C239" t="s">
-        <v>1322</v>
+        <v>1111</v>
       </c>
       <c r="D239" t="s">
-        <v>1322</v>
+        <v>1111</v>
       </c>
       <c r="F239" t="s">
-        <v>1542</v>
+        <v>1753</v>
       </c>
       <c r="G239" t="s">
         <v>853</v>
@@ -11040,7 +10626,7 @@
         <v>930</v>
       </c>
       <c r="F240" t="s">
-        <v>1474</v>
+        <v>1754</v>
       </c>
       <c r="G240" t="s">
         <v>220</v>
@@ -11054,13 +10640,13 @@
         <v>904</v>
       </c>
       <c r="C241" t="s">
-        <v>1444</v>
+        <v>1233</v>
       </c>
       <c r="D241" t="s">
-        <v>1444</v>
+        <v>1233</v>
       </c>
       <c r="F241" t="s">
-        <v>1541</v>
+        <v>1755</v>
       </c>
       <c r="G241" t="s">
         <v>536</v>
@@ -11080,7 +10666,7 @@
         <v>965</v>
       </c>
       <c r="F242" t="s">
-        <v>1489</v>
+        <v>1756</v>
       </c>
       <c r="G242" t="s">
         <v>522</v>
@@ -11100,7 +10686,7 @@
         <v>985</v>
       </c>
       <c r="F243" t="s">
-        <v>1485</v>
+        <v>1757</v>
       </c>
       <c r="G243" t="s">
         <v>675</v>
@@ -11128,10 +10714,10 @@
         <v>904</v>
       </c>
       <c r="C245" t="s">
-        <v>1009</v>
+        <v>1758</v>
       </c>
       <c r="D245" t="s">
-        <v>1009</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -11142,10 +10728,10 @@
         <v>904</v>
       </c>
       <c r="C246" t="s">
-        <v>1006</v>
+        <v>1759</v>
       </c>
       <c r="D246" t="s">
-        <v>1006</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -11156,10 +10742,10 @@
         <v>904</v>
       </c>
       <c r="C247" t="s">
-        <v>1012</v>
+        <v>1760</v>
       </c>
       <c r="D247" t="s">
-        <v>1012</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -11226,10 +10812,10 @@
         <v>904</v>
       </c>
       <c r="C252" t="s">
-        <v>1190</v>
+        <v>1761</v>
       </c>
       <c r="D252" t="s">
-        <v>1190</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -11240,10 +10826,10 @@
         <v>904</v>
       </c>
       <c r="C253" t="s">
-        <v>1366</v>
+        <v>1155</v>
       </c>
       <c r="D253" t="s">
-        <v>1366</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -11254,10 +10840,10 @@
         <v>904</v>
       </c>
       <c r="C254" t="s">
-        <v>1343</v>
+        <v>1132</v>
       </c>
       <c r="D254" t="s">
-        <v>1343</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -11268,10 +10854,10 @@
         <v>904</v>
       </c>
       <c r="C255" t="s">
-        <v>1017</v>
+        <v>1762</v>
       </c>
       <c r="D255" t="s">
-        <v>1017</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -11282,10 +10868,10 @@
         <v>904</v>
       </c>
       <c r="C256" t="s">
-        <v>1018</v>
+        <v>1763</v>
       </c>
       <c r="D256" t="s">
-        <v>1018</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -11296,10 +10882,10 @@
         <v>904</v>
       </c>
       <c r="C257" t="s">
-        <v>1073</v>
+        <v>1764</v>
       </c>
       <c r="D257" t="s">
-        <v>1073</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -11310,10 +10896,10 @@
         <v>904</v>
       </c>
       <c r="C258" t="s">
-        <v>1347</v>
+        <v>1136</v>
       </c>
       <c r="D258" t="s">
-        <v>1347</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -11324,10 +10910,10 @@
         <v>904</v>
       </c>
       <c r="C259" t="s">
-        <v>1714</v>
+        <v>1406</v>
       </c>
       <c r="D259" t="s">
-        <v>1245</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -11338,10 +10924,10 @@
         <v>904</v>
       </c>
       <c r="C260" t="s">
-        <v>1448</v>
+        <v>1237</v>
       </c>
       <c r="D260" t="s">
-        <v>1448</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -11352,10 +10938,10 @@
         <v>904</v>
       </c>
       <c r="C261" t="s">
-        <v>1138</v>
+        <v>1765</v>
       </c>
       <c r="D261" t="s">
-        <v>1138</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -11366,10 +10952,10 @@
         <v>904</v>
       </c>
       <c r="C262" t="s">
-        <v>1096</v>
+        <v>1766</v>
       </c>
       <c r="D262" t="s">
-        <v>1096</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -11380,10 +10966,10 @@
         <v>904</v>
       </c>
       <c r="C263" t="s">
-        <v>1439</v>
+        <v>1228</v>
       </c>
       <c r="D263" t="s">
-        <v>1439</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -11394,10 +10980,10 @@
         <v>904</v>
       </c>
       <c r="C264" t="s">
-        <v>1162</v>
+        <v>1767</v>
       </c>
       <c r="D264" t="s">
-        <v>1162</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -11408,10 +10994,10 @@
         <v>904</v>
       </c>
       <c r="C265" t="s">
-        <v>1186</v>
+        <v>1768</v>
       </c>
       <c r="D265" t="s">
-        <v>1186</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -11422,10 +11008,10 @@
         <v>904</v>
       </c>
       <c r="C266" t="s">
-        <v>1716</v>
+        <v>1408</v>
       </c>
       <c r="D266" t="s">
-        <v>1314</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -11450,10 +11036,10 @@
         <v>904</v>
       </c>
       <c r="C268" t="s">
-        <v>1022</v>
+        <v>1769</v>
       </c>
       <c r="D268" t="s">
-        <v>1022</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -11464,10 +11050,10 @@
         <v>904</v>
       </c>
       <c r="C269" t="s">
-        <v>1368</v>
+        <v>1157</v>
       </c>
       <c r="D269" t="s">
-        <v>1368</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -11478,10 +11064,10 @@
         <v>904</v>
       </c>
       <c r="C270" t="s">
-        <v>1118</v>
+        <v>1770</v>
       </c>
       <c r="D270" t="s">
-        <v>1118</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -11506,10 +11092,10 @@
         <v>904</v>
       </c>
       <c r="C272" t="s">
-        <v>1415</v>
+        <v>1204</v>
       </c>
       <c r="D272" t="s">
-        <v>1415</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -11520,10 +11106,10 @@
         <v>904</v>
       </c>
       <c r="C273" t="s">
-        <v>1362</v>
+        <v>1151</v>
       </c>
       <c r="D273" t="s">
-        <v>1362</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -11534,10 +11120,10 @@
         <v>904</v>
       </c>
       <c r="C274" t="s">
-        <v>1719</v>
+        <v>1411</v>
       </c>
       <c r="D274" t="s">
-        <v>1291</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -11548,10 +11134,10 @@
         <v>904</v>
       </c>
       <c r="C275" t="s">
-        <v>1720</v>
+        <v>1412</v>
       </c>
       <c r="D275" t="s">
-        <v>1228</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -11562,10 +11148,10 @@
         <v>904</v>
       </c>
       <c r="C276" t="s">
-        <v>1722</v>
+        <v>1414</v>
       </c>
       <c r="D276" t="s">
-        <v>1243</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -11576,10 +11162,10 @@
         <v>904</v>
       </c>
       <c r="C277" t="s">
-        <v>1351</v>
+        <v>1140</v>
       </c>
       <c r="D277" t="s">
-        <v>1351</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -11590,10 +11176,10 @@
         <v>904</v>
       </c>
       <c r="C278" t="s">
-        <v>1381</v>
+        <v>1170</v>
       </c>
       <c r="D278" t="s">
-        <v>1381</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -11604,10 +11190,10 @@
         <v>904</v>
       </c>
       <c r="C279" t="s">
-        <v>1109</v>
+        <v>1771</v>
       </c>
       <c r="D279" t="s">
-        <v>1109</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -11618,10 +11204,10 @@
         <v>904</v>
       </c>
       <c r="C280" t="s">
-        <v>1727</v>
+        <v>1419</v>
       </c>
       <c r="D280" t="s">
-        <v>1223</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -11632,10 +11218,10 @@
         <v>904</v>
       </c>
       <c r="C281" t="s">
-        <v>1728</v>
+        <v>1420</v>
       </c>
       <c r="D281" t="s">
-        <v>1287</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -11646,10 +11232,10 @@
         <v>904</v>
       </c>
       <c r="C282" t="s">
-        <v>1380</v>
+        <v>1169</v>
       </c>
       <c r="D282" t="s">
-        <v>1380</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -11660,10 +11246,10 @@
         <v>904</v>
       </c>
       <c r="C283" t="s">
-        <v>1024</v>
+        <v>1772</v>
       </c>
       <c r="D283" t="s">
-        <v>1024</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -11674,10 +11260,10 @@
         <v>904</v>
       </c>
       <c r="C284" t="s">
-        <v>1051</v>
+        <v>1773</v>
       </c>
       <c r="D284" t="s">
-        <v>1051</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -11688,10 +11274,10 @@
         <v>904</v>
       </c>
       <c r="C285" t="s">
-        <v>1356</v>
+        <v>1145</v>
       </c>
       <c r="D285" t="s">
-        <v>1356</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -11702,10 +11288,10 @@
         <v>904</v>
       </c>
       <c r="C286" t="s">
-        <v>1076</v>
+        <v>1774</v>
       </c>
       <c r="D286" t="s">
-        <v>1076</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -11730,10 +11316,10 @@
         <v>904</v>
       </c>
       <c r="C288" t="s">
-        <v>1143</v>
+        <v>1775</v>
       </c>
       <c r="D288" t="s">
-        <v>1143</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -11744,10 +11330,10 @@
         <v>904</v>
       </c>
       <c r="C289" t="s">
-        <v>1400</v>
+        <v>1189</v>
       </c>
       <c r="D289" t="s">
-        <v>1400</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -11758,10 +11344,10 @@
         <v>904</v>
       </c>
       <c r="C290" t="s">
-        <v>1025</v>
+        <v>1776</v>
       </c>
       <c r="D290" t="s">
-        <v>1025</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -11772,10 +11358,10 @@
         <v>904</v>
       </c>
       <c r="C291" t="s">
-        <v>1157</v>
+        <v>1777</v>
       </c>
       <c r="D291" t="s">
-        <v>1157</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -11800,10 +11386,10 @@
         <v>904</v>
       </c>
       <c r="C293" t="s">
-        <v>1421</v>
+        <v>1210</v>
       </c>
       <c r="D293" t="s">
-        <v>1421</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -11828,10 +11414,10 @@
         <v>904</v>
       </c>
       <c r="C295" t="s">
-        <v>1354</v>
+        <v>1143</v>
       </c>
       <c r="D295" t="s">
-        <v>1354</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -11842,10 +11428,10 @@
         <v>904</v>
       </c>
       <c r="C296" t="s">
-        <v>1396</v>
+        <v>1185</v>
       </c>
       <c r="D296" t="s">
-        <v>1396</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -11856,10 +11442,10 @@
         <v>904</v>
       </c>
       <c r="C297" t="s">
-        <v>1449</v>
+        <v>1238</v>
       </c>
       <c r="D297" t="s">
-        <v>1449</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -11870,10 +11456,10 @@
         <v>904</v>
       </c>
       <c r="C298" t="s">
-        <v>1168</v>
+        <v>1778</v>
       </c>
       <c r="D298" t="s">
-        <v>1168</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -11884,10 +11470,10 @@
         <v>904</v>
       </c>
       <c r="C299" t="s">
-        <v>1125</v>
+        <v>1779</v>
       </c>
       <c r="D299" t="s">
-        <v>1125</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -11898,10 +11484,10 @@
         <v>904</v>
       </c>
       <c r="C300" t="s">
-        <v>1403</v>
+        <v>1192</v>
       </c>
       <c r="D300" t="s">
-        <v>1403</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -11912,10 +11498,10 @@
         <v>904</v>
       </c>
       <c r="C301" t="s">
-        <v>1216</v>
+        <v>1780</v>
       </c>
       <c r="D301" t="s">
-        <v>1216</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -11926,10 +11512,10 @@
         <v>904</v>
       </c>
       <c r="C302" t="s">
-        <v>1429</v>
+        <v>1218</v>
       </c>
       <c r="D302" t="s">
-        <v>1429</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -11940,10 +11526,10 @@
         <v>904</v>
       </c>
       <c r="C303" t="s">
-        <v>1170</v>
+        <v>1781</v>
       </c>
       <c r="D303" t="s">
-        <v>1170</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -11954,10 +11540,10 @@
         <v>904</v>
       </c>
       <c r="C304" t="s">
-        <v>1165</v>
+        <v>1782</v>
       </c>
       <c r="D304" t="s">
-        <v>1165</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -11968,10 +11554,10 @@
         <v>904</v>
       </c>
       <c r="C305" t="s">
-        <v>1065</v>
+        <v>1783</v>
       </c>
       <c r="D305" t="s">
-        <v>1065</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -11982,10 +11568,10 @@
         <v>904</v>
       </c>
       <c r="C306" t="s">
-        <v>1106</v>
+        <v>1784</v>
       </c>
       <c r="D306" t="s">
-        <v>1106</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -11996,10 +11582,10 @@
         <v>904</v>
       </c>
       <c r="C307" t="s">
-        <v>1026</v>
+        <v>1785</v>
       </c>
       <c r="D307" t="s">
-        <v>1026</v>
+        <v>1785</v>
       </c>
       <c r="G307" t="s">
         <v>820</v>
@@ -12013,10 +11599,10 @@
         <v>904</v>
       </c>
       <c r="C308" t="s">
-        <v>1202</v>
+        <v>1786</v>
       </c>
       <c r="D308" t="s">
-        <v>1202</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -12027,10 +11613,10 @@
         <v>904</v>
       </c>
       <c r="C309" t="s">
-        <v>1195</v>
+        <v>1787</v>
       </c>
       <c r="D309" t="s">
-        <v>1195</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -12041,10 +11627,10 @@
         <v>904</v>
       </c>
       <c r="C310" t="s">
-        <v>1135</v>
+        <v>1788</v>
       </c>
       <c r="D310" t="s">
-        <v>1135</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -12069,10 +11655,10 @@
         <v>904</v>
       </c>
       <c r="C312" t="s">
-        <v>1736</v>
+        <v>1428</v>
       </c>
       <c r="D312" t="s">
-        <v>1253</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -12097,10 +11683,10 @@
         <v>904</v>
       </c>
       <c r="C314" t="s">
-        <v>1737</v>
+        <v>1429</v>
       </c>
       <c r="D314" t="s">
-        <v>1236</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -12111,10 +11697,10 @@
         <v>904</v>
       </c>
       <c r="C315" t="s">
-        <v>1211</v>
+        <v>1789</v>
       </c>
       <c r="D315" t="s">
-        <v>1211</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -12125,10 +11711,10 @@
         <v>904</v>
       </c>
       <c r="C316" t="s">
-        <v>1363</v>
+        <v>1152</v>
       </c>
       <c r="D316" t="s">
-        <v>1363</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -12139,10 +11725,10 @@
         <v>904</v>
       </c>
       <c r="C317" t="s">
-        <v>1378</v>
+        <v>1167</v>
       </c>
       <c r="D317" t="s">
-        <v>1378</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -12153,7 +11739,7 @@
         <v>904</v>
       </c>
       <c r="C318" t="s">
-        <v>1941</v>
+        <v>1632</v>
       </c>
       <c r="D318" t="s">
         <v>997</v>
@@ -12167,10 +11753,10 @@
         <v>904</v>
       </c>
       <c r="C319" t="s">
-        <v>1341</v>
+        <v>1130</v>
       </c>
       <c r="D319" t="s">
-        <v>1341</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -12181,10 +11767,10 @@
         <v>904</v>
       </c>
       <c r="C320" t="s">
-        <v>1209</v>
+        <v>1790</v>
       </c>
       <c r="D320" t="s">
-        <v>1209</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -12195,10 +11781,10 @@
         <v>904</v>
       </c>
       <c r="C321" t="s">
-        <v>1023</v>
+        <v>1791</v>
       </c>
       <c r="D321" t="s">
-        <v>1023</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -12209,10 +11795,10 @@
         <v>904</v>
       </c>
       <c r="C322" t="s">
-        <v>1940</v>
+        <v>1631</v>
       </c>
       <c r="D322" t="s">
-        <v>1104</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -12223,10 +11809,10 @@
         <v>904</v>
       </c>
       <c r="C323" t="s">
-        <v>1469</v>
+        <v>1258</v>
       </c>
       <c r="D323" t="s">
-        <v>1469</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -12237,10 +11823,10 @@
         <v>904</v>
       </c>
       <c r="C324" t="s">
-        <v>1739</v>
+        <v>1431</v>
       </c>
       <c r="D324" t="s">
-        <v>1238</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -12251,10 +11837,10 @@
         <v>904</v>
       </c>
       <c r="C325" t="s">
-        <v>1740</v>
+        <v>1432</v>
       </c>
       <c r="D325" t="s">
-        <v>1239</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -12265,10 +11851,10 @@
         <v>904</v>
       </c>
       <c r="C326" t="s">
-        <v>1197</v>
+        <v>1793</v>
       </c>
       <c r="D326" t="s">
-        <v>1197</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -12279,10 +11865,10 @@
         <v>904</v>
       </c>
       <c r="C327" t="s">
-        <v>1411</v>
+        <v>1200</v>
       </c>
       <c r="D327" t="s">
-        <v>1411</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -12293,10 +11879,10 @@
         <v>904</v>
       </c>
       <c r="C328" t="s">
-        <v>1355</v>
+        <v>1144</v>
       </c>
       <c r="D328" t="s">
-        <v>1355</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -12307,10 +11893,10 @@
         <v>904</v>
       </c>
       <c r="C329" t="s">
-        <v>1027</v>
+        <v>1794</v>
       </c>
       <c r="D329" t="s">
-        <v>1027</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -12321,10 +11907,10 @@
         <v>904</v>
       </c>
       <c r="C330" t="s">
-        <v>1398</v>
+        <v>1187</v>
       </c>
       <c r="D330" t="s">
-        <v>1398</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -12335,10 +11921,10 @@
         <v>904</v>
       </c>
       <c r="C331" t="s">
-        <v>1942</v>
+        <v>1795</v>
       </c>
       <c r="D331" t="s">
-        <v>1069</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -12349,10 +11935,10 @@
         <v>904</v>
       </c>
       <c r="C332" t="s">
-        <v>1742</v>
+        <v>1434</v>
       </c>
       <c r="D332" t="s">
-        <v>1247</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -12363,10 +11949,10 @@
         <v>904</v>
       </c>
       <c r="C333" t="s">
-        <v>1208</v>
+        <v>1797</v>
       </c>
       <c r="D333" t="s">
-        <v>1208</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -12405,10 +11991,10 @@
         <v>904</v>
       </c>
       <c r="C336" t="s">
-        <v>1943</v>
+        <v>1798</v>
       </c>
       <c r="D336" t="s">
-        <v>1098</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -12419,10 +12005,10 @@
         <v>904</v>
       </c>
       <c r="C337" t="s">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="D337" t="s">
-        <v>1100</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -12433,10 +12019,10 @@
         <v>904</v>
       </c>
       <c r="C338" t="s">
-        <v>1053</v>
+        <v>1801</v>
       </c>
       <c r="D338" t="s">
-        <v>1053</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -12447,10 +12033,10 @@
         <v>904</v>
       </c>
       <c r="C339" t="s">
-        <v>1424</v>
+        <v>1213</v>
       </c>
       <c r="D339" t="s">
-        <v>1424</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -12461,10 +12047,10 @@
         <v>904</v>
       </c>
       <c r="C340" t="s">
-        <v>1089</v>
+        <v>1802</v>
       </c>
       <c r="D340" t="s">
-        <v>1089</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -12475,10 +12061,10 @@
         <v>904</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>1339</v>
+        <v>1128</v>
       </c>
       <c r="D341" t="s">
-        <v>1339</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -12489,10 +12075,10 @@
         <v>904</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>1357</v>
+        <v>1146</v>
       </c>
       <c r="D342" t="s">
-        <v>1357</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -12503,10 +12089,10 @@
         <v>904</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>1747</v>
+        <v>1439</v>
       </c>
       <c r="D343" t="s">
-        <v>1251</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -12517,10 +12103,10 @@
         <v>904</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>1748</v>
+        <v>1440</v>
       </c>
       <c r="D344" t="s">
-        <v>1095</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -12531,10 +12117,10 @@
         <v>904</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>1447</v>
+        <v>1236</v>
       </c>
       <c r="D345" t="s">
-        <v>1447</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -12545,10 +12131,10 @@
         <v>904</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>1751</v>
+        <v>1443</v>
       </c>
       <c r="D346" t="s">
-        <v>1080</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -12559,10 +12145,10 @@
         <v>904</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>1752</v>
+        <v>1444</v>
       </c>
       <c r="D347" t="s">
-        <v>1029</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -12573,10 +12159,10 @@
         <v>904</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>1753</v>
+        <v>1445</v>
       </c>
       <c r="D348" t="s">
-        <v>1090</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -12601,10 +12187,10 @@
         <v>904</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>1754</v>
+        <v>1446</v>
       </c>
       <c r="D350" t="s">
-        <v>1257</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -12615,10 +12201,10 @@
         <v>904</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>1755</v>
+        <v>1447</v>
       </c>
       <c r="D351" t="s">
-        <v>1030</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -12629,10 +12215,10 @@
         <v>904</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>1413</v>
+        <v>1202</v>
       </c>
       <c r="D352" t="s">
-        <v>1413</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -12643,10 +12229,10 @@
         <v>904</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>1346</v>
+        <v>1135</v>
       </c>
       <c r="D353" t="s">
-        <v>1346</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -12657,10 +12243,10 @@
         <v>904</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1758</v>
+        <v>1450</v>
       </c>
       <c r="D354" t="s">
-        <v>1273</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -12671,10 +12257,10 @@
         <v>904</v>
       </c>
       <c r="C355" t="s">
-        <v>1176</v>
+        <v>1803</v>
       </c>
       <c r="D355" t="s">
-        <v>1176</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -12685,10 +12271,10 @@
         <v>904</v>
       </c>
       <c r="C356" t="s">
-        <v>1759</v>
+        <v>1451</v>
       </c>
       <c r="D356" t="s">
-        <v>1189</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -12699,10 +12285,10 @@
         <v>904</v>
       </c>
       <c r="C357" t="s">
-        <v>1760</v>
+        <v>1452</v>
       </c>
       <c r="D357" t="s">
-        <v>1087</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -12713,10 +12299,10 @@
         <v>904</v>
       </c>
       <c r="C358" t="s">
-        <v>1761</v>
+        <v>1453</v>
       </c>
       <c r="D358" t="s">
-        <v>1265</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -12727,10 +12313,10 @@
         <v>904</v>
       </c>
       <c r="C359" t="s">
-        <v>1389</v>
+        <v>1178</v>
       </c>
       <c r="D359" t="s">
-        <v>1389</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -12741,10 +12327,10 @@
         <v>904</v>
       </c>
       <c r="C360" t="s">
-        <v>1763</v>
+        <v>1455</v>
       </c>
       <c r="D360" t="s">
-        <v>1263</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -12755,10 +12341,10 @@
         <v>904</v>
       </c>
       <c r="C361" t="s">
-        <v>1764</v>
+        <v>1456</v>
       </c>
       <c r="D361" t="s">
-        <v>1091</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -12769,10 +12355,10 @@
         <v>904</v>
       </c>
       <c r="C362" t="s">
-        <v>1369</v>
+        <v>1158</v>
       </c>
       <c r="D362" t="s">
-        <v>1369</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -12783,10 +12369,10 @@
         <v>904</v>
       </c>
       <c r="C363" t="s">
-        <v>1767</v>
+        <v>1459</v>
       </c>
       <c r="D363" t="s">
-        <v>1101</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -12797,10 +12383,10 @@
         <v>904</v>
       </c>
       <c r="C364" t="s">
-        <v>1770</v>
+        <v>1462</v>
       </c>
       <c r="D364" t="s">
-        <v>1115</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -12811,10 +12397,10 @@
         <v>904</v>
       </c>
       <c r="C365" t="s">
-        <v>1772</v>
+        <v>1464</v>
       </c>
       <c r="D365" t="s">
-        <v>1139</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -12825,10 +12411,10 @@
         <v>904</v>
       </c>
       <c r="C366" t="s">
-        <v>1773</v>
+        <v>1465</v>
       </c>
       <c r="D366" t="s">
-        <v>1152</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -12839,10 +12425,10 @@
         <v>904</v>
       </c>
       <c r="C367" t="s">
-        <v>1774</v>
+        <v>1466</v>
       </c>
       <c r="D367" t="s">
-        <v>1294</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -12853,10 +12439,10 @@
         <v>904</v>
       </c>
       <c r="C368" t="s">
-        <v>1775</v>
+        <v>1467</v>
       </c>
       <c r="D368" t="s">
-        <v>1184</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -12867,10 +12453,10 @@
         <v>904</v>
       </c>
       <c r="C369" t="s">
-        <v>1776</v>
+        <v>1468</v>
       </c>
       <c r="D369" t="s">
-        <v>1140</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -12881,10 +12467,10 @@
         <v>904</v>
       </c>
       <c r="C370" t="s">
-        <v>1777</v>
+        <v>1469</v>
       </c>
       <c r="D370" t="s">
-        <v>1196</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -12895,10 +12481,10 @@
         <v>904</v>
       </c>
       <c r="C371" t="s">
-        <v>1779</v>
+        <v>1471</v>
       </c>
       <c r="D371" t="s">
-        <v>1114</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -12909,10 +12495,10 @@
         <v>904</v>
       </c>
       <c r="C372" t="s">
-        <v>1780</v>
+        <v>1472</v>
       </c>
       <c r="D372" t="s">
-        <v>1192</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -12923,10 +12509,10 @@
         <v>904</v>
       </c>
       <c r="C373" t="s">
-        <v>1781</v>
+        <v>1473</v>
       </c>
       <c r="D373" t="s">
-        <v>1212</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -12937,10 +12523,10 @@
         <v>904</v>
       </c>
       <c r="C374" t="s">
-        <v>1783</v>
+        <v>1475</v>
       </c>
       <c r="D374" t="s">
-        <v>1272</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -12993,10 +12579,10 @@
         <v>904</v>
       </c>
       <c r="C378" t="s">
-        <v>1385</v>
+        <v>1174</v>
       </c>
       <c r="D378" t="s">
-        <v>1385</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -13007,10 +12593,10 @@
         <v>904</v>
       </c>
       <c r="C379" t="s">
-        <v>1784</v>
+        <v>1476</v>
       </c>
       <c r="D379" t="s">
-        <v>1107</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -13035,10 +12621,10 @@
         <v>904</v>
       </c>
       <c r="C381" t="s">
-        <v>1786</v>
+        <v>1478</v>
       </c>
       <c r="D381" t="s">
-        <v>1033</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -13049,10 +12635,10 @@
         <v>904</v>
       </c>
       <c r="C382" t="s">
-        <v>1787</v>
+        <v>1479</v>
       </c>
       <c r="D382" t="s">
-        <v>1288</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -13077,10 +12663,10 @@
         <v>904</v>
       </c>
       <c r="C384" t="s">
-        <v>1372</v>
+        <v>1161</v>
       </c>
       <c r="D384" t="s">
-        <v>1372</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -13091,10 +12677,10 @@
         <v>904</v>
       </c>
       <c r="C385" t="s">
-        <v>1331</v>
+        <v>1120</v>
       </c>
       <c r="D385" t="s">
-        <v>1331</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -13105,10 +12691,10 @@
         <v>904</v>
       </c>
       <c r="C386" t="s">
-        <v>1438</v>
+        <v>1227</v>
       </c>
       <c r="D386" t="s">
-        <v>1438</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -13119,10 +12705,10 @@
         <v>904</v>
       </c>
       <c r="C387" t="s">
-        <v>1788</v>
+        <v>1480</v>
       </c>
       <c r="D387" t="s">
-        <v>1235</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -13133,10 +12719,10 @@
         <v>904</v>
       </c>
       <c r="C388" t="s">
-        <v>1428</v>
+        <v>1217</v>
       </c>
       <c r="D388" t="s">
-        <v>1428</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -13147,10 +12733,10 @@
         <v>904</v>
       </c>
       <c r="C389" t="s">
-        <v>1789</v>
+        <v>1481</v>
       </c>
       <c r="D389" t="s">
-        <v>1081</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -13161,10 +12747,10 @@
         <v>904</v>
       </c>
       <c r="C390" t="s">
-        <v>1790</v>
+        <v>1482</v>
       </c>
       <c r="D390" t="s">
-        <v>1134</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -13175,10 +12761,10 @@
         <v>904</v>
       </c>
       <c r="C391" t="s">
-        <v>1471</v>
+        <v>1260</v>
       </c>
       <c r="D391" t="s">
-        <v>1471</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -13189,10 +12775,10 @@
         <v>904</v>
       </c>
       <c r="C392" t="s">
-        <v>1359</v>
+        <v>1148</v>
       </c>
       <c r="D392" t="s">
-        <v>1359</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -13203,10 +12789,10 @@
         <v>904</v>
       </c>
       <c r="C393" t="s">
-        <v>1446</v>
+        <v>1235</v>
       </c>
       <c r="D393" t="s">
-        <v>1446</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -13217,10 +12803,10 @@
         <v>904</v>
       </c>
       <c r="C394" t="s">
-        <v>1791</v>
+        <v>1483</v>
       </c>
       <c r="D394" t="s">
-        <v>1207</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -13231,10 +12817,10 @@
         <v>904</v>
       </c>
       <c r="C395" t="s">
-        <v>1792</v>
+        <v>1484</v>
       </c>
       <c r="D395" t="s">
-        <v>1306</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -13245,10 +12831,10 @@
         <v>904</v>
       </c>
       <c r="C396" t="s">
-        <v>1470</v>
+        <v>1259</v>
       </c>
       <c r="D396" t="s">
-        <v>1470</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -13259,10 +12845,10 @@
         <v>904</v>
       </c>
       <c r="C397" t="s">
-        <v>1338</v>
+        <v>1127</v>
       </c>
       <c r="D397" t="s">
-        <v>1338</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -13273,10 +12859,10 @@
         <v>904</v>
       </c>
       <c r="C398" t="s">
-        <v>1793</v>
+        <v>1485</v>
       </c>
       <c r="D398" t="s">
-        <v>1034</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -13301,10 +12887,10 @@
         <v>904</v>
       </c>
       <c r="C400" t="s">
-        <v>1795</v>
+        <v>1487</v>
       </c>
       <c r="D400" t="s">
-        <v>1092</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -13315,10 +12901,10 @@
         <v>904</v>
       </c>
       <c r="C401" t="s">
-        <v>1445</v>
+        <v>1234</v>
       </c>
       <c r="D401" t="s">
-        <v>1445</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -13329,10 +12915,10 @@
         <v>904</v>
       </c>
       <c r="C402" t="s">
-        <v>1796</v>
+        <v>1488</v>
       </c>
       <c r="D402" t="s">
-        <v>1200</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -13343,10 +12929,10 @@
         <v>904</v>
       </c>
       <c r="C403" t="s">
-        <v>1797</v>
+        <v>1489</v>
       </c>
       <c r="D403" t="s">
-        <v>1217</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -13357,10 +12943,10 @@
         <v>904</v>
       </c>
       <c r="C404" t="s">
-        <v>1798</v>
+        <v>1490</v>
       </c>
       <c r="D404" t="s">
-        <v>1267</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -13371,10 +12957,10 @@
         <v>904</v>
       </c>
       <c r="C405" t="s">
-        <v>1799</v>
+        <v>1491</v>
       </c>
       <c r="D405" t="s">
-        <v>1035</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -13399,10 +12985,10 @@
         <v>904</v>
       </c>
       <c r="C407" t="s">
-        <v>1802</v>
+        <v>1494</v>
       </c>
       <c r="D407" t="s">
-        <v>1137</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -13413,10 +12999,10 @@
         <v>904</v>
       </c>
       <c r="C408" t="s">
-        <v>1803</v>
+        <v>1495</v>
       </c>
       <c r="D408" t="s">
-        <v>1177</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -13427,10 +13013,10 @@
         <v>904</v>
       </c>
       <c r="C409" t="s">
-        <v>1399</v>
+        <v>1188</v>
       </c>
       <c r="D409" t="s">
-        <v>1399</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -13441,10 +13027,10 @@
         <v>904</v>
       </c>
       <c r="C410" t="s">
-        <v>1808</v>
+        <v>1500</v>
       </c>
       <c r="D410" t="s">
-        <v>1173</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -13455,10 +13041,10 @@
         <v>904</v>
       </c>
       <c r="C411" t="s">
-        <v>1809</v>
+        <v>1501</v>
       </c>
       <c r="D411" t="s">
-        <v>1213</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -13483,10 +13069,10 @@
         <v>904</v>
       </c>
       <c r="C413" t="s">
-        <v>1810</v>
+        <v>1502</v>
       </c>
       <c r="D413" t="s">
-        <v>1136</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -13497,10 +13083,10 @@
         <v>904</v>
       </c>
       <c r="C414" t="s">
-        <v>1376</v>
+        <v>1165</v>
       </c>
       <c r="D414" t="s">
-        <v>1376</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -13511,10 +13097,10 @@
         <v>904</v>
       </c>
       <c r="C415" t="s">
-        <v>1330</v>
+        <v>1119</v>
       </c>
       <c r="D415" t="s">
-        <v>1330</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -13525,10 +13111,10 @@
         <v>904</v>
       </c>
       <c r="C416" t="s">
-        <v>1319</v>
+        <v>1108</v>
       </c>
       <c r="D416" t="s">
-        <v>1319</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -13539,10 +13125,10 @@
         <v>904</v>
       </c>
       <c r="C417" t="s">
-        <v>1811</v>
+        <v>1503</v>
       </c>
       <c r="D417" t="s">
-        <v>1254</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -13567,10 +13153,10 @@
         <v>904</v>
       </c>
       <c r="C419" t="s">
-        <v>1812</v>
+        <v>1504</v>
       </c>
       <c r="D419" t="s">
-        <v>1079</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -13581,10 +13167,10 @@
         <v>904</v>
       </c>
       <c r="C420" t="s">
-        <v>1815</v>
+        <v>1507</v>
       </c>
       <c r="D420" t="s">
-        <v>1037</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -13595,10 +13181,10 @@
         <v>904</v>
       </c>
       <c r="C421" t="s">
-        <v>1816</v>
+        <v>1508</v>
       </c>
       <c r="D421" t="s">
-        <v>1097</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -13623,10 +13209,10 @@
         <v>904</v>
       </c>
       <c r="C423" t="s">
-        <v>1817</v>
+        <v>1509</v>
       </c>
       <c r="D423" t="s">
-        <v>1102</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -13637,10 +13223,10 @@
         <v>904</v>
       </c>
       <c r="C424" t="s">
-        <v>1818</v>
+        <v>1510</v>
       </c>
       <c r="D424" t="s">
-        <v>1038</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -13665,10 +13251,10 @@
         <v>904</v>
       </c>
       <c r="C426" t="s">
-        <v>1820</v>
+        <v>1512</v>
       </c>
       <c r="D426" t="s">
-        <v>1124</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -13679,10 +13265,10 @@
         <v>904</v>
       </c>
       <c r="C427" t="s">
-        <v>1821</v>
+        <v>1513</v>
       </c>
       <c r="D427" t="s">
-        <v>1290</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -13693,10 +13279,10 @@
         <v>904</v>
       </c>
       <c r="C428" t="s">
-        <v>1822</v>
+        <v>1514</v>
       </c>
       <c r="D428" t="s">
-        <v>1317</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -13721,10 +13307,10 @@
         <v>904</v>
       </c>
       <c r="C430" t="s">
-        <v>1040</v>
+        <v>1804</v>
       </c>
       <c r="D430" t="s">
-        <v>1040</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -13735,10 +13321,10 @@
         <v>904</v>
       </c>
       <c r="C431" t="s">
-        <v>1163</v>
+        <v>1805</v>
       </c>
       <c r="D431" t="s">
-        <v>1163</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -13805,10 +13391,10 @@
         <v>904</v>
       </c>
       <c r="C436" t="s">
-        <v>1826</v>
+        <v>1518</v>
       </c>
       <c r="D436" t="s">
-        <v>1041</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -13819,10 +13405,10 @@
         <v>904</v>
       </c>
       <c r="C437" t="s">
-        <v>1830</v>
+        <v>1522</v>
       </c>
       <c r="D437" t="s">
-        <v>1043</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -13847,10 +13433,10 @@
         <v>904</v>
       </c>
       <c r="C439" t="s">
-        <v>1334</v>
+        <v>1123</v>
       </c>
       <c r="D439" t="s">
-        <v>1334</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -13861,10 +13447,10 @@
         <v>904</v>
       </c>
       <c r="C440" t="s">
-        <v>1304</v>
+        <v>1093</v>
       </c>
       <c r="D440" t="s">
-        <v>1304</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -13875,10 +13461,10 @@
         <v>904</v>
       </c>
       <c r="C441" t="s">
-        <v>1831</v>
+        <v>1523</v>
       </c>
       <c r="D441" t="s">
-        <v>1154</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -13889,10 +13475,10 @@
         <v>904</v>
       </c>
       <c r="C442" t="s">
-        <v>1832</v>
+        <v>1524</v>
       </c>
       <c r="D442" t="s">
-        <v>1071</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -13903,10 +13489,10 @@
         <v>904</v>
       </c>
       <c r="C443" t="s">
-        <v>1833</v>
+        <v>1525</v>
       </c>
       <c r="D443" t="s">
-        <v>1142</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -13931,10 +13517,10 @@
         <v>904</v>
       </c>
       <c r="C445" t="s">
-        <v>1834</v>
+        <v>1526</v>
       </c>
       <c r="D445" t="s">
-        <v>1044</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -13945,10 +13531,10 @@
         <v>904</v>
       </c>
       <c r="C446" t="s">
-        <v>1835</v>
+        <v>1527</v>
       </c>
       <c r="D446" t="s">
-        <v>1045</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -13973,10 +13559,10 @@
         <v>904</v>
       </c>
       <c r="C448" t="s">
-        <v>1839</v>
+        <v>1531</v>
       </c>
       <c r="D448" t="s">
-        <v>1129</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -13987,10 +13573,10 @@
         <v>904</v>
       </c>
       <c r="C449" t="s">
-        <v>1364</v>
+        <v>1153</v>
       </c>
       <c r="D449" t="s">
-        <v>1364</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -14001,10 +13587,10 @@
         <v>904</v>
       </c>
       <c r="C450" t="s">
-        <v>1407</v>
+        <v>1196</v>
       </c>
       <c r="D450" t="s">
-        <v>1407</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -14015,10 +13601,10 @@
         <v>904</v>
       </c>
       <c r="C451" t="s">
-        <v>1840</v>
+        <v>1532</v>
       </c>
       <c r="D451" t="s">
-        <v>1046</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -14029,10 +13615,10 @@
         <v>904</v>
       </c>
       <c r="C452" t="s">
-        <v>1842</v>
+        <v>1534</v>
       </c>
       <c r="D452" t="s">
-        <v>1151</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -14085,10 +13671,10 @@
         <v>904</v>
       </c>
       <c r="C456" t="s">
-        <v>1437</v>
+        <v>1226</v>
       </c>
       <c r="D456" t="s">
-        <v>1437</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -14099,10 +13685,10 @@
         <v>904</v>
       </c>
       <c r="C457" t="s">
-        <v>1844</v>
+        <v>1536</v>
       </c>
       <c r="D457" t="s">
-        <v>1048</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -14113,10 +13699,10 @@
         <v>904</v>
       </c>
       <c r="C458" t="s">
-        <v>1441</v>
+        <v>1230</v>
       </c>
       <c r="D458" t="s">
-        <v>1441</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -14127,10 +13713,10 @@
         <v>904</v>
       </c>
       <c r="C459" t="s">
-        <v>1846</v>
+        <v>1538</v>
       </c>
       <c r="D459" t="s">
-        <v>1155</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -14155,10 +13741,10 @@
         <v>904</v>
       </c>
       <c r="C461" t="s">
-        <v>1847</v>
+        <v>1539</v>
       </c>
       <c r="D461" t="s">
-        <v>1292</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -14169,10 +13755,10 @@
         <v>904</v>
       </c>
       <c r="C462" t="s">
-        <v>1848</v>
+        <v>1540</v>
       </c>
       <c r="D462" t="s">
-        <v>1049</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -14183,10 +13769,10 @@
         <v>904</v>
       </c>
       <c r="C463" t="s">
-        <v>1849</v>
+        <v>1541</v>
       </c>
       <c r="D463" t="s">
-        <v>1303</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -14197,10 +13783,10 @@
         <v>904</v>
       </c>
       <c r="C464" t="s">
-        <v>1850</v>
+        <v>1542</v>
       </c>
       <c r="D464" t="s">
-        <v>1181</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -14298,10 +13884,10 @@
         <v>904</v>
       </c>
       <c r="C471" t="s">
-        <v>1328</v>
+        <v>1117</v>
       </c>
       <c r="D471" t="s">
-        <v>1328</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -14312,10 +13898,10 @@
         <v>904</v>
       </c>
       <c r="C472" t="s">
-        <v>1412</v>
+        <v>1201</v>
       </c>
       <c r="D472" t="s">
-        <v>1412</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -14326,10 +13912,10 @@
         <v>904</v>
       </c>
       <c r="C473" t="s">
-        <v>1361</v>
+        <v>1150</v>
       </c>
       <c r="D473" t="s">
-        <v>1361</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -14340,10 +13926,10 @@
         <v>904</v>
       </c>
       <c r="C474" t="s">
-        <v>1854</v>
+        <v>1546</v>
       </c>
       <c r="D474" t="s">
-        <v>1187</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -14354,10 +13940,10 @@
         <v>904</v>
       </c>
       <c r="C475" t="s">
-        <v>1855</v>
+        <v>1547</v>
       </c>
       <c r="D475" t="s">
-        <v>1172</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -14368,10 +13954,10 @@
         <v>904</v>
       </c>
       <c r="C476" t="s">
-        <v>1856</v>
+        <v>1548</v>
       </c>
       <c r="D476" t="s">
-        <v>1050</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -14382,10 +13968,10 @@
         <v>904</v>
       </c>
       <c r="C477" t="s">
-        <v>1332</v>
+        <v>1121</v>
       </c>
       <c r="D477" t="s">
-        <v>1332</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -14413,10 +13999,10 @@
         <v>904</v>
       </c>
       <c r="C479" t="s">
-        <v>1858</v>
+        <v>1550</v>
       </c>
       <c r="D479" t="s">
-        <v>1093</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -14427,10 +14013,10 @@
         <v>904</v>
       </c>
       <c r="C480" t="s">
-        <v>1277</v>
+        <v>1066</v>
       </c>
       <c r="D480" t="s">
-        <v>1277</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -14441,10 +14027,10 @@
         <v>904</v>
       </c>
       <c r="C481" t="s">
-        <v>1859</v>
+        <v>1551</v>
       </c>
       <c r="D481" t="s">
-        <v>1119</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -14455,10 +14041,10 @@
         <v>904</v>
       </c>
       <c r="C482" t="s">
-        <v>1860</v>
+        <v>1552</v>
       </c>
       <c r="D482" t="s">
-        <v>1052</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -14469,10 +14055,10 @@
         <v>904</v>
       </c>
       <c r="C483" t="s">
-        <v>1460</v>
+        <v>1249</v>
       </c>
       <c r="D483" t="s">
-        <v>1460</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -14483,10 +14069,10 @@
         <v>904</v>
       </c>
       <c r="C484" t="s">
-        <v>1861</v>
+        <v>1553</v>
       </c>
       <c r="D484" t="s">
-        <v>1308</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -14497,10 +14083,10 @@
         <v>904</v>
       </c>
       <c r="C485" t="s">
-        <v>1862</v>
+        <v>1554</v>
       </c>
       <c r="D485" t="s">
-        <v>1132</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -14511,10 +14097,10 @@
         <v>904</v>
       </c>
       <c r="C486" t="s">
-        <v>1452</v>
+        <v>1241</v>
       </c>
       <c r="D486" t="s">
-        <v>1452</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -14525,10 +14111,10 @@
         <v>904</v>
       </c>
       <c r="C487" t="s">
-        <v>1397</v>
+        <v>1186</v>
       </c>
       <c r="D487" t="s">
-        <v>1397</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -14539,10 +14125,10 @@
         <v>904</v>
       </c>
       <c r="C488" t="s">
-        <v>1863</v>
+        <v>1555</v>
       </c>
       <c r="D488" t="s">
-        <v>1175</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -14567,10 +14153,10 @@
         <v>904</v>
       </c>
       <c r="C490" t="s">
-        <v>1325</v>
+        <v>1114</v>
       </c>
       <c r="D490" t="s">
-        <v>1325</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -14581,10 +14167,10 @@
         <v>904</v>
       </c>
       <c r="C491" t="s">
-        <v>1864</v>
+        <v>1556</v>
       </c>
       <c r="D491" t="s">
-        <v>1227</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -14595,10 +14181,10 @@
         <v>904</v>
       </c>
       <c r="C492" t="s">
-        <v>1422</v>
+        <v>1211</v>
       </c>
       <c r="D492" t="s">
-        <v>1422</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -14609,10 +14195,10 @@
         <v>904</v>
       </c>
       <c r="C493" t="s">
-        <v>1367</v>
+        <v>1156</v>
       </c>
       <c r="D493" t="s">
-        <v>1367</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -14637,10 +14223,10 @@
         <v>904</v>
       </c>
       <c r="C495" t="s">
-        <v>1436</v>
+        <v>1225</v>
       </c>
       <c r="D495" t="s">
-        <v>1436</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -14651,10 +14237,10 @@
         <v>904</v>
       </c>
       <c r="C496" t="s">
-        <v>1867</v>
+        <v>1559</v>
       </c>
       <c r="D496" t="s">
-        <v>1174</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -14665,10 +14251,10 @@
         <v>904</v>
       </c>
       <c r="C497" t="s">
-        <v>1868</v>
+        <v>1560</v>
       </c>
       <c r="D497" t="s">
-        <v>1266</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -14693,10 +14279,10 @@
         <v>904</v>
       </c>
       <c r="C499" t="s">
-        <v>1869</v>
+        <v>1561</v>
       </c>
       <c r="D499" t="s">
-        <v>1147</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -14721,10 +14307,10 @@
         <v>904</v>
       </c>
       <c r="C501" t="s">
-        <v>1337</v>
+        <v>1126</v>
       </c>
       <c r="D501" t="s">
-        <v>1337</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -14735,10 +14321,10 @@
         <v>904</v>
       </c>
       <c r="C502" t="s">
-        <v>1365</v>
+        <v>1154</v>
       </c>
       <c r="D502" t="s">
-        <v>1365</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -14749,10 +14335,10 @@
         <v>904</v>
       </c>
       <c r="C503" t="s">
-        <v>1873</v>
+        <v>1565</v>
       </c>
       <c r="D503" t="s">
-        <v>1146</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -14763,10 +14349,10 @@
         <v>904</v>
       </c>
       <c r="C504" t="s">
-        <v>1456</v>
+        <v>1245</v>
       </c>
       <c r="D504" t="s">
-        <v>1456</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -14777,10 +14363,10 @@
         <v>904</v>
       </c>
       <c r="C505" t="s">
-        <v>1875</v>
+        <v>1567</v>
       </c>
       <c r="D505" t="s">
-        <v>1161</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -14791,10 +14377,10 @@
         <v>904</v>
       </c>
       <c r="C506" t="s">
-        <v>1877</v>
+        <v>1569</v>
       </c>
       <c r="D506" t="s">
-        <v>1293</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -14805,10 +14391,10 @@
         <v>904</v>
       </c>
       <c r="C507" t="s">
-        <v>1878</v>
+        <v>1570</v>
       </c>
       <c r="D507" t="s">
-        <v>1244</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -14819,10 +14405,10 @@
         <v>904</v>
       </c>
       <c r="C508" t="s">
-        <v>1880</v>
+        <v>1572</v>
       </c>
       <c r="D508" t="s">
-        <v>1229</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -14847,10 +14433,10 @@
         <v>904</v>
       </c>
       <c r="C510" t="s">
-        <v>1379</v>
+        <v>1168</v>
       </c>
       <c r="D510" t="s">
-        <v>1379</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -14875,10 +14461,10 @@
         <v>904</v>
       </c>
       <c r="C512" t="s">
-        <v>1882</v>
+        <v>1574</v>
       </c>
       <c r="D512" t="s">
-        <v>1183</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -14889,10 +14475,10 @@
         <v>904</v>
       </c>
       <c r="C513" t="s">
-        <v>1885</v>
+        <v>1577</v>
       </c>
       <c r="D513" t="s">
-        <v>1056</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -14903,10 +14489,10 @@
         <v>904</v>
       </c>
       <c r="C514" t="s">
-        <v>1350</v>
+        <v>1139</v>
       </c>
       <c r="D514" t="s">
-        <v>1350</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -14917,10 +14503,10 @@
         <v>904</v>
       </c>
       <c r="C515" t="s">
-        <v>1465</v>
+        <v>1254</v>
       </c>
       <c r="D515" t="s">
-        <v>1465</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -14945,10 +14531,10 @@
         <v>904</v>
       </c>
       <c r="C517" t="s">
-        <v>1887</v>
+        <v>1579</v>
       </c>
       <c r="D517" t="s">
-        <v>1058</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -14959,10 +14545,10 @@
         <v>904</v>
       </c>
       <c r="C518" t="s">
-        <v>1888</v>
+        <v>1580</v>
       </c>
       <c r="D518" t="s">
-        <v>1059</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -14973,10 +14559,10 @@
         <v>904</v>
       </c>
       <c r="C519" t="s">
-        <v>1892</v>
+        <v>1584</v>
       </c>
       <c r="D519" t="s">
-        <v>1112</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -14987,10 +14573,10 @@
         <v>904</v>
       </c>
       <c r="C520" t="s">
-        <v>1893</v>
+        <v>1585</v>
       </c>
       <c r="D520" t="s">
-        <v>1286</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -15015,10 +14601,10 @@
         <v>904</v>
       </c>
       <c r="C522" t="s">
-        <v>1894</v>
+        <v>1586</v>
       </c>
       <c r="D522" t="s">
-        <v>1110</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -15029,10 +14615,10 @@
         <v>904</v>
       </c>
       <c r="C523" t="s">
-        <v>1895</v>
+        <v>1587</v>
       </c>
       <c r="D523" t="s">
-        <v>1261</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -15043,10 +14629,10 @@
         <v>904</v>
       </c>
       <c r="C524" t="s">
-        <v>1326</v>
+        <v>1115</v>
       </c>
       <c r="D524" t="s">
-        <v>1326</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -15057,10 +14643,10 @@
         <v>904</v>
       </c>
       <c r="C525" t="s">
-        <v>1414</v>
+        <v>1203</v>
       </c>
       <c r="D525" t="s">
-        <v>1414</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -15071,10 +14657,10 @@
         <v>904</v>
       </c>
       <c r="C526" t="s">
-        <v>1432</v>
+        <v>1221</v>
       </c>
       <c r="D526" t="s">
-        <v>1432</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -15085,10 +14671,10 @@
         <v>904</v>
       </c>
       <c r="C527" t="s">
-        <v>1898</v>
+        <v>1590</v>
       </c>
       <c r="D527" t="s">
-        <v>1061</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -15099,10 +14685,10 @@
         <v>904</v>
       </c>
       <c r="C528" t="s">
-        <v>1418</v>
+        <v>1207</v>
       </c>
       <c r="D528" t="s">
-        <v>1418</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -15113,10 +14699,10 @@
         <v>904</v>
       </c>
       <c r="C529" t="s">
-        <v>1370</v>
+        <v>1159</v>
       </c>
       <c r="D529" t="s">
-        <v>1370</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -15155,10 +14741,10 @@
         <v>904</v>
       </c>
       <c r="C532" t="s">
-        <v>1901</v>
+        <v>1593</v>
       </c>
       <c r="D532" t="s">
-        <v>1113</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -15169,10 +14755,10 @@
         <v>904</v>
       </c>
       <c r="C533" t="s">
-        <v>1902</v>
+        <v>1594</v>
       </c>
       <c r="D533" t="s">
-        <v>1062</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -15183,10 +14769,10 @@
         <v>904</v>
       </c>
       <c r="C534" t="s">
-        <v>1903</v>
+        <v>1595</v>
       </c>
       <c r="D534" t="s">
-        <v>1116</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -15197,10 +14783,10 @@
         <v>904</v>
       </c>
       <c r="C535" t="s">
-        <v>1904</v>
+        <v>1596</v>
       </c>
       <c r="D535" t="s">
-        <v>1064</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -15225,10 +14811,10 @@
         <v>904</v>
       </c>
       <c r="C537" t="s">
-        <v>1905</v>
+        <v>1597</v>
       </c>
       <c r="D537" t="s">
-        <v>1188</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -15239,10 +14825,10 @@
         <v>904</v>
       </c>
       <c r="C538" t="s">
-        <v>1907</v>
+        <v>1599</v>
       </c>
       <c r="D538" t="s">
-        <v>1299</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -15267,10 +14853,10 @@
         <v>904</v>
       </c>
       <c r="C540" t="s">
-        <v>1909</v>
+        <v>1601</v>
       </c>
       <c r="D540" t="s">
-        <v>1127</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -15351,10 +14937,10 @@
         <v>904</v>
       </c>
       <c r="C546" t="s">
-        <v>1358</v>
+        <v>1147</v>
       </c>
       <c r="D546" t="s">
-        <v>1358</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -15365,10 +14951,10 @@
         <v>904</v>
       </c>
       <c r="C547" t="s">
-        <v>1912</v>
+        <v>1604</v>
       </c>
       <c r="D547" t="s">
-        <v>1094</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -15379,10 +14965,10 @@
         <v>904</v>
       </c>
       <c r="C548" t="s">
-        <v>1395</v>
+        <v>1184</v>
       </c>
       <c r="D548" t="s">
-        <v>1395</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -15393,10 +14979,10 @@
         <v>904</v>
       </c>
       <c r="C549" t="s">
-        <v>1913</v>
+        <v>1605</v>
       </c>
       <c r="D549" t="s">
-        <v>1122</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -15407,10 +14993,10 @@
         <v>904</v>
       </c>
       <c r="C550" t="s">
-        <v>1915</v>
+        <v>1607</v>
       </c>
       <c r="D550" t="s">
-        <v>1121</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -15421,10 +15007,10 @@
         <v>904</v>
       </c>
       <c r="C551" t="s">
-        <v>1917</v>
+        <v>1609</v>
       </c>
       <c r="D551" t="s">
-        <v>1148</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -15435,10 +15021,10 @@
         <v>904</v>
       </c>
       <c r="C552" t="s">
-        <v>1920</v>
+        <v>1612</v>
       </c>
       <c r="D552" t="s">
-        <v>1126</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -15449,10 +15035,10 @@
         <v>904</v>
       </c>
       <c r="C553" t="s">
-        <v>1922</v>
+        <v>1614</v>
       </c>
       <c r="D553" t="s">
-        <v>1233</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -15477,10 +15063,10 @@
         <v>904</v>
       </c>
       <c r="C555" t="s">
-        <v>1923</v>
+        <v>1615</v>
       </c>
       <c r="D555" t="s">
-        <v>1067</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -15491,10 +15077,10 @@
         <v>904</v>
       </c>
       <c r="C556" t="s">
-        <v>1924</v>
+        <v>1616</v>
       </c>
       <c r="D556" t="s">
-        <v>1128</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -15519,10 +15105,10 @@
         <v>904</v>
       </c>
       <c r="C558" t="s">
-        <v>1928</v>
+        <v>1620</v>
       </c>
       <c r="D558" t="s">
-        <v>1068</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -15533,10 +15119,10 @@
         <v>904</v>
       </c>
       <c r="C559" t="s">
-        <v>1242</v>
+        <v>1031</v>
       </c>
       <c r="D559" t="s">
-        <v>1242</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -15547,10 +15133,10 @@
         <v>904</v>
       </c>
       <c r="C560" t="s">
-        <v>1323</v>
+        <v>1112</v>
       </c>
       <c r="D560" t="s">
-        <v>1323</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -15561,10 +15147,10 @@
         <v>904</v>
       </c>
       <c r="C561" t="s">
-        <v>1932</v>
+        <v>1624</v>
       </c>
       <c r="D561" t="s">
-        <v>1158</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -15575,10 +15161,10 @@
         <v>904</v>
       </c>
       <c r="C562" t="s">
-        <v>1935</v>
+        <v>1627</v>
       </c>
       <c r="D562" t="s">
-        <v>1210</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -15617,10 +15203,10 @@
         <v>904</v>
       </c>
       <c r="C565" t="s">
-        <v>1936</v>
+        <v>1628</v>
       </c>
       <c r="D565" t="s">
-        <v>1070</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -15631,10 +15217,10 @@
         <v>904</v>
       </c>
       <c r="C566" t="s">
-        <v>1937</v>
+        <v>1629</v>
       </c>
       <c r="D566" t="s">
-        <v>1159</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -15645,10 +15231,10 @@
         <v>904</v>
       </c>
       <c r="C567" t="s">
-        <v>1305</v>
+        <v>1094</v>
       </c>
       <c r="D567" t="s">
-        <v>1305</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -15687,7 +15273,7 @@
         <v>904</v>
       </c>
       <c r="C570" t="s">
-        <v>1715</v>
+        <v>1407</v>
       </c>
       <c r="D570" t="s">
         <v>996</v>
